--- a/io/input/methionine_cycle_fmincon.xlsx
+++ b/io/input/methionine_cycle_fmincon.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="153">
   <si>
     <t xml:space="preserve">General Reaction and Sampling Platform (GRASP)</t>
   </si>
@@ -76,18 +76,9 @@
     <t xml:space="preserve">Number of cores (ignored if Parallel mode disabled)</t>
   </si>
   <si>
-    <t xml:space="preserve">Percentile of alive models for SMC (e.g., 20, 50, etc.) (only needed for rejectionSMC, SMC, MCMC-SMC)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Compute robust fluxes (ON = 1; OFF = 0)</t>
   </si>
   <si>
-    <t xml:space="preserve">Compute thermodynamics (ON = 1; OFF = 0)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Initial tolerance (OPTIONAL)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Final tolerance (in the case of ORACLE, set to 1)</t>
   </si>
   <si>
@@ -202,12 +193,6 @@
     <t xml:space="preserve">balanced?</t>
   </si>
   <si>
-    <t xml:space="preserve">active?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">constant?</t>
-  </si>
-  <si>
     <t xml:space="preserve">measured?</t>
   </si>
   <si>
@@ -272,9 +257,6 @@
   </si>
   <si>
     <t xml:space="preserve">transport reaction?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">modelled?</t>
   </si>
   <si>
     <t xml:space="preserve">isoenzymes</t>
@@ -631,7 +613,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -670,10 +652,6 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -753,10 +731,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11:B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -849,7 +827,7 @@
         <v>14</v>
       </c>
       <c r="B11" s="5" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -857,33 +835,12 @@
         <v>15</v>
       </c>
       <c r="B12" s="5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" s="5" t="n">
         <v>0.5</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" s="5" t="n">
-        <v>0.1</v>
-      </c>
-    </row>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -903,7 +860,7 @@
   <dimension ref="A1:I1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
+      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B11:B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -921,394 +878,394 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1022" style="0" width="8.67"/>
   </cols>
   <sheetData>
-    <row r="1" s="20" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" s="19" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="9" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B1" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="H1" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="I1" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="D1" s="19" t="s">
-        <v>105</v>
-      </c>
-      <c r="E1" s="19" t="s">
-        <v>106</v>
-      </c>
-      <c r="F1" s="19" t="s">
-        <v>107</v>
-      </c>
-      <c r="G1" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="H1" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="I1" s="19" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="2" s="20" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="2" s="19" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B2" s="21" t="n">
+        <v>39</v>
+      </c>
+      <c r="B2" s="20" t="n">
         <v>0.1382</v>
       </c>
-      <c r="C2" s="22" t="n">
+      <c r="C2" s="21" t="n">
         <f aca="false">0.15*B2</f>
         <v>0.02073</v>
       </c>
-      <c r="D2" s="21" t="n">
+      <c r="D2" s="20" t="n">
         <v>0.1325</v>
       </c>
-      <c r="E2" s="22" t="n">
+      <c r="E2" s="21" t="n">
         <f aca="false">0.15*D2</f>
         <v>0.019875</v>
       </c>
-      <c r="F2" s="21" t="n">
+      <c r="F2" s="20" t="n">
         <v>0.1347</v>
       </c>
-      <c r="G2" s="22" t="n">
+      <c r="G2" s="21" t="n">
         <f aca="false">0.15*F2</f>
         <v>0.020205</v>
       </c>
-      <c r="H2" s="21" t="n">
+      <c r="H2" s="20" t="n">
         <v>0.1075</v>
       </c>
-      <c r="I2" s="22" t="n">
+      <c r="I2" s="21" t="n">
         <f aca="false">0.15*H2</f>
         <v>0.016125</v>
       </c>
     </row>
-    <row r="3" s="20" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" s="19" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B3" s="21" t="n">
+        <v>40</v>
+      </c>
+      <c r="B3" s="20" t="n">
         <v>0.8148</v>
       </c>
-      <c r="C3" s="22" t="n">
+      <c r="C3" s="21" t="n">
         <f aca="false">0.15*B3</f>
         <v>0.12222</v>
       </c>
-      <c r="D3" s="21" t="n">
+      <c r="D3" s="20" t="n">
         <v>0.8687</v>
       </c>
-      <c r="E3" s="22" t="n">
+      <c r="E3" s="21" t="n">
         <f aca="false">0.15*D3</f>
         <v>0.130305</v>
       </c>
-      <c r="F3" s="21" t="n">
+      <c r="F3" s="20" t="n">
         <v>0.856</v>
       </c>
-      <c r="G3" s="22" t="n">
+      <c r="G3" s="21" t="n">
         <f aca="false">0.15*F3</f>
         <v>0.1284</v>
       </c>
-      <c r="H3" s="21" t="n">
+      <c r="H3" s="20" t="n">
         <v>0.7304</v>
       </c>
-      <c r="I3" s="22" t="n">
+      <c r="I3" s="21" t="n">
         <f aca="false">0.15*H3</f>
         <v>0.10956</v>
       </c>
     </row>
-    <row r="4" s="20" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" s="19" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B4" s="21" t="n">
+        <v>41</v>
+      </c>
+      <c r="B4" s="20" t="n">
         <v>0.2491</v>
       </c>
-      <c r="C4" s="22" t="n">
+      <c r="C4" s="21" t="n">
         <f aca="false">0.15*B4</f>
         <v>0.037365</v>
       </c>
-      <c r="D4" s="21" t="n">
+      <c r="D4" s="20" t="n">
         <v>0.158</v>
       </c>
-      <c r="E4" s="22" t="n">
+      <c r="E4" s="21" t="n">
         <f aca="false">0.15*D4</f>
         <v>0.0237</v>
       </c>
-      <c r="F4" s="21" t="n">
+      <c r="F4" s="20" t="n">
         <v>0.1836</v>
       </c>
-      <c r="G4" s="22" t="n">
+      <c r="G4" s="21" t="n">
         <f aca="false">0.15*F4</f>
         <v>0.02754</v>
       </c>
-      <c r="H4" s="21" t="n">
+      <c r="H4" s="20" t="n">
         <v>0.0578</v>
       </c>
-      <c r="I4" s="22" t="n">
+      <c r="I4" s="21" t="n">
         <f aca="false">0.15*H4</f>
         <v>0.00867</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B5" s="21" t="n">
+        <v>42</v>
+      </c>
+      <c r="B5" s="20" t="n">
         <v>1.0164</v>
       </c>
-      <c r="C5" s="22" t="n">
+      <c r="C5" s="21" t="n">
         <f aca="false">0.15*B5</f>
         <v>0.15246</v>
       </c>
-      <c r="D5" s="21" t="n">
+      <c r="D5" s="20" t="n">
         <v>1.0037</v>
       </c>
-      <c r="E5" s="22" t="n">
+      <c r="E5" s="21" t="n">
         <f aca="false">0.15*D5</f>
         <v>0.150555</v>
       </c>
-      <c r="F5" s="21" t="n">
+      <c r="F5" s="20" t="n">
         <v>0.9685</v>
       </c>
-      <c r="G5" s="22" t="n">
+      <c r="G5" s="21" t="n">
         <f aca="false">0.15*F5</f>
         <v>0.145275</v>
       </c>
-      <c r="H5" s="21" t="n">
+      <c r="H5" s="20" t="n">
         <v>0.785</v>
       </c>
-      <c r="I5" s="22" t="n">
+      <c r="I5" s="21" t="n">
         <f aca="false">0.15*H5</f>
         <v>0.11775</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B6" s="21" t="n">
+        <v>43</v>
+      </c>
+      <c r="B6" s="20" t="n">
         <v>0.0475</v>
       </c>
-      <c r="C6" s="22" t="n">
+      <c r="C6" s="21" t="n">
         <f aca="false">0.15*B6</f>
         <v>0.007125</v>
       </c>
-      <c r="D6" s="21" t="n">
+      <c r="D6" s="20" t="n">
         <v>0.023</v>
       </c>
-      <c r="E6" s="22" t="n">
+      <c r="E6" s="21" t="n">
         <f aca="false">0.15*D6</f>
         <v>0.00345</v>
       </c>
-      <c r="F6" s="21" t="n">
+      <c r="F6" s="20" t="n">
         <v>0.071</v>
       </c>
-      <c r="G6" s="22" t="n">
+      <c r="G6" s="21" t="n">
         <f aca="false">0.15*F6</f>
         <v>0.01065</v>
       </c>
-      <c r="H6" s="21" t="n">
+      <c r="H6" s="20" t="n">
         <v>0.0031</v>
       </c>
-      <c r="I6" s="22" t="n">
+      <c r="I6" s="21" t="n">
         <f aca="false">0.15*H6</f>
         <v>0.000465</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B7" s="21" t="n">
+        <v>44</v>
+      </c>
+      <c r="B7" s="20" t="n">
         <v>1.0639</v>
       </c>
-      <c r="C7" s="22" t="n">
+      <c r="C7" s="21" t="n">
         <f aca="false">0.15*B7</f>
         <v>0.159585</v>
       </c>
-      <c r="D7" s="21" t="n">
+      <c r="D7" s="20" t="n">
         <v>1.0267</v>
       </c>
-      <c r="E7" s="22" t="n">
+      <c r="E7" s="21" t="n">
         <f aca="false">0.15*D7</f>
         <v>0.154005</v>
       </c>
-      <c r="F7" s="21" t="n">
+      <c r="F7" s="20" t="n">
         <v>1.0396</v>
       </c>
-      <c r="G7" s="22" t="n">
+      <c r="G7" s="21" t="n">
         <f aca="false">0.15*F7</f>
         <v>0.15594</v>
       </c>
-      <c r="H7" s="21" t="n">
+      <c r="H7" s="20" t="n">
         <v>0.7881</v>
       </c>
-      <c r="I7" s="22" t="n">
+      <c r="I7" s="21" t="n">
         <f aca="false">0.15*H7</f>
         <v>0.118215</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B8" s="21" t="n">
+        <v>45</v>
+      </c>
+      <c r="B8" s="20" t="n">
         <v>0.0852</v>
       </c>
-      <c r="C8" s="22" t="n">
+      <c r="C8" s="21" t="n">
         <f aca="false">0.15*B8</f>
         <v>0.01278</v>
       </c>
-      <c r="D8" s="21" t="n">
+      <c r="D8" s="20" t="n">
         <v>0.0878</v>
       </c>
-      <c r="E8" s="22" t="n">
+      <c r="E8" s="21" t="n">
         <f aca="false">0.15*D8</f>
         <v>0.01317</v>
       </c>
-      <c r="F8" s="21" t="n">
+      <c r="F8" s="20" t="n">
         <v>0.021</v>
       </c>
-      <c r="G8" s="22" t="n">
+      <c r="G8" s="21" t="n">
         <f aca="false">0.15*F8</f>
         <v>0.00315</v>
       </c>
-      <c r="H8" s="21" t="n">
+      <c r="H8" s="20" t="n">
         <v>0.1343</v>
       </c>
-      <c r="I8" s="22" t="n">
+      <c r="I8" s="21" t="n">
         <f aca="false">0.15*H8</f>
         <v>0.020145</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B9" s="21" t="n">
+        <v>46</v>
+      </c>
+      <c r="B9" s="20" t="n">
         <v>0.3556</v>
       </c>
-      <c r="C9" s="22" t="n">
+      <c r="C9" s="21" t="n">
         <f aca="false">0.15*B9</f>
         <v>0.05334</v>
       </c>
-      <c r="D9" s="21" t="n">
+      <c r="D9" s="20" t="n">
         <v>0.3102</v>
       </c>
-      <c r="E9" s="22" t="n">
+      <c r="E9" s="21" t="n">
         <f aca="false">0.15*D9</f>
         <v>0.04653</v>
       </c>
-      <c r="F9" s="21" t="n">
+      <c r="F9" s="20" t="n">
         <v>0.392</v>
       </c>
-      <c r="G9" s="22" t="n">
+      <c r="G9" s="21" t="n">
         <f aca="false">0.15*F9</f>
         <v>0.0588</v>
       </c>
-      <c r="H9" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" s="22" t="n">
+      <c r="H9" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" s="21" t="n">
         <f aca="false">0.15*H9</f>
         <v>0</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B10" s="21" t="n">
+        <v>47</v>
+      </c>
+      <c r="B10" s="20" t="n">
         <v>0.6231</v>
       </c>
-      <c r="C10" s="22" t="n">
+      <c r="C10" s="21" t="n">
         <f aca="false">0.15*B10</f>
         <v>0.093465</v>
       </c>
-      <c r="D10" s="21" t="n">
+      <c r="D10" s="20" t="n">
         <v>0.6288</v>
       </c>
-      <c r="E10" s="22" t="n">
+      <c r="E10" s="21" t="n">
         <f aca="false">0.15*D10</f>
         <v>0.09432</v>
       </c>
-      <c r="F10" s="21" t="n">
+      <c r="F10" s="20" t="n">
         <v>0.6266</v>
       </c>
-      <c r="G10" s="22" t="n">
+      <c r="G10" s="21" t="n">
         <f aca="false">0.15*F10</f>
         <v>0.09399</v>
       </c>
-      <c r="H10" s="21" t="n">
+      <c r="H10" s="20" t="n">
         <v>0.6538</v>
       </c>
-      <c r="I10" s="22" t="n">
+      <c r="I10" s="21" t="n">
         <f aca="false">0.15*H10</f>
         <v>0.09807</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B11" s="21" t="n">
+        <v>48</v>
+      </c>
+      <c r="B11" s="20" t="n">
         <v>0.0852</v>
       </c>
-      <c r="C11" s="22" t="n">
+      <c r="C11" s="21" t="n">
         <f aca="false">0.15*B11</f>
         <v>0.01278</v>
       </c>
-      <c r="D11" s="21" t="n">
+      <c r="D11" s="20" t="n">
         <v>0.0878</v>
       </c>
-      <c r="E11" s="22" t="n">
+      <c r="E11" s="21" t="n">
         <f aca="false">0.15*D11</f>
         <v>0.01317</v>
       </c>
-      <c r="F11" s="21" t="n">
+      <c r="F11" s="20" t="n">
         <v>0.021</v>
       </c>
-      <c r="G11" s="22" t="n">
+      <c r="G11" s="21" t="n">
         <f aca="false">0.15*F11</f>
         <v>0.00315</v>
       </c>
-      <c r="H11" s="21" t="n">
+      <c r="H11" s="20" t="n">
         <v>0.1343</v>
       </c>
-      <c r="I11" s="22" t="n">
+      <c r="I11" s="21" t="n">
         <f aca="false">0.15*H11</f>
         <v>0.020145</v>
       </c>
     </row>
-    <row r="12" s="20" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" s="19" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B12" s="21" t="n">
+        <v>49</v>
+      </c>
+      <c r="B12" s="20" t="n">
         <v>0.7613</v>
       </c>
-      <c r="C12" s="22" t="n">
+      <c r="C12" s="21" t="n">
         <f aca="false">0.15*B12</f>
         <v>0.114195</v>
       </c>
-      <c r="D12" s="21" t="n">
+      <c r="D12" s="20" t="n">
         <v>0.7613</v>
       </c>
-      <c r="E12" s="22" t="n">
+      <c r="E12" s="21" t="n">
         <f aca="false">0.15*D12</f>
         <v>0.114195</v>
       </c>
-      <c r="F12" s="21" t="n">
+      <c r="F12" s="20" t="n">
         <v>0.7613</v>
       </c>
-      <c r="G12" s="22" t="n">
+      <c r="G12" s="21" t="n">
         <f aca="false">0.15*F12</f>
         <v>0.114195</v>
       </c>
-      <c r="H12" s="21" t="n">
+      <c r="H12" s="20" t="n">
         <v>0.7613</v>
       </c>
-      <c r="I12" s="22" t="n">
+      <c r="I12" s="21" t="n">
         <f aca="false">0.15*H12</f>
         <v>0.114195</v>
       </c>
@@ -1333,7 +1290,7 @@
   <dimension ref="A1:J1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H9" activeCellId="0" sqref="H9"/>
+      <selection pane="topLeft" activeCell="H9" activeCellId="1" sqref="B11:B12 H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1354,385 +1311,385 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="I1" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="J1" s="18" t="s">
         <v>111</v>
-      </c>
-      <c r="B1" s="19" t="s">
-        <v>112</v>
-      </c>
-      <c r="C1" s="19" t="s">
-        <v>105</v>
-      </c>
-      <c r="D1" s="19" t="s">
-        <v>113</v>
-      </c>
-      <c r="E1" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="F1" s="19" t="s">
-        <v>107</v>
-      </c>
-      <c r="G1" s="19" t="s">
-        <v>115</v>
-      </c>
-      <c r="H1" s="19" t="s">
-        <v>116</v>
-      </c>
-      <c r="I1" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="J1" s="19" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B2" s="11" t="n">
+        <v>39</v>
+      </c>
+      <c r="B2" s="10" t="n">
         <v>0.99</v>
       </c>
-      <c r="C2" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" s="11" t="n">
+      <c r="C2" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" s="10" t="n">
         <v>1.01</v>
       </c>
-      <c r="E2" s="11" t="n">
+      <c r="E2" s="10" t="n">
         <v>0.99</v>
       </c>
-      <c r="F2" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="G2" s="11" t="n">
+      <c r="F2" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2" s="10" t="n">
         <v>1.01</v>
       </c>
-      <c r="H2" s="11" t="n">
+      <c r="H2" s="10" t="n">
         <v>0.99</v>
       </c>
-      <c r="I2" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" s="11" t="n">
+      <c r="I2" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J2" s="10" t="n">
         <v>1.01</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B3" s="11" t="n">
+        <v>40</v>
+      </c>
+      <c r="B3" s="10" t="n">
         <v>0.99</v>
       </c>
-      <c r="C3" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" s="11" t="n">
+      <c r="C3" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" s="10" t="n">
         <v>1.01</v>
       </c>
-      <c r="E3" s="11" t="n">
+      <c r="E3" s="10" t="n">
         <v>0.99</v>
       </c>
-      <c r="F3" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="G3" s="11" t="n">
+      <c r="F3" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" s="10" t="n">
         <v>1.01</v>
       </c>
-      <c r="H3" s="11" t="n">
+      <c r="H3" s="10" t="n">
         <v>0.99</v>
       </c>
-      <c r="I3" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" s="11" t="n">
+      <c r="I3" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" s="10" t="n">
         <v>1.01</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B4" s="11" t="n">
+        <v>41</v>
+      </c>
+      <c r="B4" s="10" t="n">
         <v>0.99</v>
       </c>
-      <c r="C4" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" s="11" t="n">
+      <c r="C4" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" s="10" t="n">
         <v>1.01</v>
       </c>
-      <c r="E4" s="11" t="n">
+      <c r="E4" s="10" t="n">
         <v>0.99</v>
       </c>
-      <c r="F4" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="G4" s="11" t="n">
+      <c r="F4" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" s="10" t="n">
         <v>1.01</v>
       </c>
-      <c r="H4" s="11" t="n">
+      <c r="H4" s="10" t="n">
         <v>0.99</v>
       </c>
-      <c r="I4" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="J4" s="11" t="n">
+      <c r="I4" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" s="10" t="n">
         <v>1.01</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B5" s="11" t="n">
+        <v>42</v>
+      </c>
+      <c r="B5" s="10" t="n">
         <v>0.99</v>
       </c>
-      <c r="C5" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" s="11" t="n">
+      <c r="C5" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" s="10" t="n">
         <v>1.01</v>
       </c>
-      <c r="E5" s="11" t="n">
+      <c r="E5" s="10" t="n">
         <v>0.99</v>
       </c>
-      <c r="F5" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="G5" s="11" t="n">
+      <c r="F5" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" s="10" t="n">
         <v>1.01</v>
       </c>
-      <c r="H5" s="11" t="n">
+      <c r="H5" s="10" t="n">
         <v>0.99</v>
       </c>
-      <c r="I5" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="J5" s="11" t="n">
+      <c r="I5" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" s="10" t="n">
         <v>1.01</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B6" s="11" t="n">
+        <v>43</v>
+      </c>
+      <c r="B6" s="10" t="n">
         <v>0.99</v>
       </c>
-      <c r="C6" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" s="11" t="n">
+      <c r="C6" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" s="10" t="n">
         <v>1.01</v>
       </c>
-      <c r="E6" s="11" t="n">
+      <c r="E6" s="10" t="n">
         <v>0.99</v>
       </c>
-      <c r="F6" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="G6" s="11" t="n">
+      <c r="F6" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" s="10" t="n">
         <v>1.01</v>
       </c>
-      <c r="H6" s="11" t="n">
+      <c r="H6" s="10" t="n">
         <v>0.99</v>
       </c>
-      <c r="I6" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="J6" s="11" t="n">
+      <c r="I6" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" s="10" t="n">
         <v>1.01</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B7" s="11" t="n">
+        <v>44</v>
+      </c>
+      <c r="B7" s="10" t="n">
         <v>0.99</v>
       </c>
-      <c r="C7" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" s="11" t="n">
+      <c r="C7" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" s="10" t="n">
         <v>1.01</v>
       </c>
-      <c r="E7" s="11" t="n">
+      <c r="E7" s="10" t="n">
         <v>0.99</v>
       </c>
-      <c r="F7" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="G7" s="11" t="n">
+      <c r="F7" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" s="10" t="n">
         <v>1.01</v>
       </c>
-      <c r="H7" s="11" t="n">
+      <c r="H7" s="10" t="n">
         <v>0.99</v>
       </c>
-      <c r="I7" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="J7" s="11" t="n">
+      <c r="I7" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" s="10" t="n">
         <v>1.01</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B8" s="11" t="n">
+        <v>45</v>
+      </c>
+      <c r="B8" s="10" t="n">
         <v>0.99</v>
       </c>
-      <c r="C8" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="D8" s="11" t="n">
+      <c r="C8" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" s="10" t="n">
         <v>1.01</v>
       </c>
-      <c r="E8" s="11" t="n">
+      <c r="E8" s="10" t="n">
         <v>0.99</v>
       </c>
-      <c r="F8" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="G8" s="11" t="n">
+      <c r="F8" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" s="10" t="n">
         <v>1.01</v>
       </c>
-      <c r="H8" s="11" t="n">
+      <c r="H8" s="10" t="n">
         <v>0.99</v>
       </c>
-      <c r="I8" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="J8" s="11" t="n">
+      <c r="I8" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" s="10" t="n">
         <v>1.01</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B9" s="11" t="n">
+        <v>46</v>
+      </c>
+      <c r="B9" s="10" t="n">
         <v>0.99</v>
       </c>
-      <c r="C9" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="D9" s="11" t="n">
+      <c r="C9" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" s="10" t="n">
         <v>1.01</v>
       </c>
-      <c r="E9" s="11" t="n">
+      <c r="E9" s="10" t="n">
         <v>0.99</v>
       </c>
-      <c r="F9" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="G9" s="11" t="n">
+      <c r="F9" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G9" s="10" t="n">
         <v>1.01</v>
       </c>
-      <c r="H9" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" s="11" t="n">
+      <c r="H9" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" s="10" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B10" s="11" t="n">
+        <v>47</v>
+      </c>
+      <c r="B10" s="10" t="n">
         <v>1.5</v>
       </c>
-      <c r="C10" s="11" t="n">
+      <c r="C10" s="10" t="n">
         <v>1.5</v>
       </c>
-      <c r="D10" s="11" t="n">
+      <c r="D10" s="10" t="n">
         <v>1.5</v>
       </c>
-      <c r="E10" s="11" t="n">
+      <c r="E10" s="10" t="n">
         <v>0.99</v>
       </c>
-      <c r="F10" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="G10" s="11" t="n">
+      <c r="F10" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G10" s="10" t="n">
         <v>1.01</v>
       </c>
-      <c r="H10" s="11" t="n">
+      <c r="H10" s="10" t="n">
         <v>0.99</v>
       </c>
-      <c r="I10" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="J10" s="11" t="n">
+      <c r="I10" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" s="10" t="n">
         <v>1.01</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B11" s="11" t="n">
+        <v>48</v>
+      </c>
+      <c r="B11" s="10" t="n">
         <v>0.99</v>
       </c>
-      <c r="C11" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="D11" s="11" t="n">
+      <c r="C11" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" s="10" t="n">
         <v>1.01</v>
       </c>
-      <c r="E11" s="11" t="n">
+      <c r="E11" s="10" t="n">
         <v>0.2</v>
       </c>
-      <c r="F11" s="11" t="n">
+      <c r="F11" s="10" t="n">
         <v>0.2</v>
       </c>
-      <c r="G11" s="11" t="n">
+      <c r="G11" s="10" t="n">
         <v>0.2</v>
       </c>
-      <c r="H11" s="11" t="n">
+      <c r="H11" s="10" t="n">
         <v>0.99</v>
       </c>
-      <c r="I11" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="J11" s="11" t="n">
+      <c r="I11" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" s="10" t="n">
         <v>1.01</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B12" s="11" t="n">
+        <v>49</v>
+      </c>
+      <c r="B12" s="10" t="n">
         <v>0.99</v>
       </c>
-      <c r="C12" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="D12" s="11" t="n">
+      <c r="C12" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" s="10" t="n">
         <v>1.01</v>
       </c>
-      <c r="E12" s="11" t="n">
+      <c r="E12" s="10" t="n">
         <v>0.99</v>
       </c>
-      <c r="F12" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="G12" s="11" t="n">
+      <c r="F12" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G12" s="10" t="n">
         <v>1.01</v>
       </c>
-      <c r="H12" s="11" t="n">
+      <c r="H12" s="10" t="n">
         <v>0.99</v>
       </c>
-      <c r="I12" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="J12" s="11" t="n">
+      <c r="I12" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" s="10" t="n">
         <v>1.01</v>
       </c>
     </row>
@@ -1760,7 +1717,7 @@
   <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L32" activeCellId="0" sqref="L32"/>
+      <selection pane="topLeft" activeCell="L32" activeCellId="1" sqref="B11:B12 L32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1779,737 +1736,737 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="B1" s="19" t="s">
-        <v>112</v>
-      </c>
-      <c r="C1" s="19" t="s">
-        <v>105</v>
-      </c>
-      <c r="D1" s="19" t="s">
-        <v>113</v>
-      </c>
-      <c r="E1" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="F1" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="D1" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="G1" s="19" t="s">
-        <v>115</v>
-      </c>
-      <c r="H1" s="19" t="s">
-        <v>116</v>
-      </c>
-      <c r="I1" s="19" t="s">
+      <c r="E1" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="G1" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="J1" s="19" t="s">
-        <v>117</v>
+      <c r="H1" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="I1" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="J1" s="18" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="F2" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="G2" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="H2" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" s="23" t="n">
+        <v>17</v>
+      </c>
+      <c r="B2" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="J2" s="22" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" s="23" t="n">
+        <v>18</v>
+      </c>
+      <c r="B3" s="22" t="n">
         <v>0.001</v>
       </c>
-      <c r="C3" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" s="23" t="n">
+      <c r="C3" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" s="22" t="n">
         <v>10</v>
       </c>
-      <c r="E3" s="23" t="n">
+      <c r="E3" s="22" t="n">
         <v>0.001</v>
       </c>
-      <c r="F3" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="G3" s="23" t="n">
+      <c r="F3" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" s="22" t="n">
         <v>10</v>
       </c>
-      <c r="H3" s="23" t="n">
+      <c r="H3" s="22" t="n">
         <v>0.001</v>
       </c>
-      <c r="I3" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" s="23" t="n">
+      <c r="I3" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" s="22" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="23" t="n">
+        <v>19</v>
+      </c>
+      <c r="B4" s="22" t="n">
         <v>0.001</v>
       </c>
-      <c r="C4" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" s="23" t="n">
+      <c r="C4" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" s="22" t="n">
         <v>10</v>
       </c>
-      <c r="E4" s="23" t="n">
+      <c r="E4" s="22" t="n">
         <v>0.001</v>
       </c>
-      <c r="F4" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="G4" s="23" t="n">
+      <c r="F4" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" s="22" t="n">
         <v>10</v>
       </c>
-      <c r="H4" s="23" t="n">
+      <c r="H4" s="22" t="n">
         <v>0.001</v>
       </c>
-      <c r="I4" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="J4" s="23" t="n">
+      <c r="I4" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" s="22" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="23" t="n">
+        <v>20</v>
+      </c>
+      <c r="B5" s="22" t="n">
         <v>0.001</v>
       </c>
-      <c r="C5" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" s="23" t="n">
+      <c r="C5" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" s="22" t="n">
         <v>10</v>
       </c>
-      <c r="E5" s="23" t="n">
+      <c r="E5" s="22" t="n">
         <v>0.001</v>
       </c>
-      <c r="F5" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="G5" s="23" t="n">
+      <c r="F5" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" s="22" t="n">
         <v>10</v>
       </c>
-      <c r="H5" s="23" t="n">
+      <c r="H5" s="22" t="n">
         <v>0.001</v>
       </c>
-      <c r="I5" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="J5" s="23" t="n">
+      <c r="I5" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" s="22" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="C6" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="E6" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="F6" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="G6" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="H6" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="J6" s="23" t="n">
+        <v>21</v>
+      </c>
+      <c r="B6" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" s="22" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="E7" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="F7" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="G7" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="H7" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="J7" s="23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B7" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" s="22" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="C8" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="D8" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="E8" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="F8" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="G8" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="H8" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="J8" s="23" t="n">
+        <v>23</v>
+      </c>
+      <c r="B8" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="H8" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" s="22" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="C9" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="D9" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="E9" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="F9" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="G9" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="H9" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="J9" s="23" t="n">
+        <v>24</v>
+      </c>
+      <c r="B9" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="G9" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="H9" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" s="22" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10" s="23" t="n">
+        <v>25</v>
+      </c>
+      <c r="B10" s="22" t="n">
         <v>0.001</v>
       </c>
-      <c r="C10" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="D10" s="23" t="n">
+      <c r="C10" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" s="22" t="n">
         <v>10</v>
       </c>
-      <c r="E10" s="23" t="n">
+      <c r="E10" s="22" t="n">
         <v>0.001</v>
       </c>
-      <c r="F10" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="G10" s="23" t="n">
+      <c r="F10" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="G10" s="22" t="n">
         <v>10</v>
       </c>
-      <c r="H10" s="23" t="n">
+      <c r="H10" s="22" t="n">
         <v>0.001</v>
       </c>
-      <c r="I10" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="J10" s="23" t="n">
+      <c r="I10" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" s="22" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" s="23" t="n">
+        <v>26</v>
+      </c>
+      <c r="B11" s="22" t="n">
         <v>0.001</v>
       </c>
-      <c r="C11" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="D11" s="23" t="n">
+      <c r="C11" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" s="22" t="n">
         <v>10</v>
       </c>
-      <c r="E11" s="23" t="n">
+      <c r="E11" s="22" t="n">
         <v>0.001</v>
       </c>
-      <c r="F11" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="G11" s="23" t="n">
+      <c r="F11" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="G11" s="22" t="n">
         <v>10</v>
       </c>
-      <c r="H11" s="23" t="n">
+      <c r="H11" s="22" t="n">
         <v>0.001</v>
       </c>
-      <c r="I11" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="J11" s="23" t="n">
+      <c r="I11" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" s="22" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B12" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="C12" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="D12" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="E12" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="F12" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="G12" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="H12" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="J12" s="23" t="n">
+        <v>27</v>
+      </c>
+      <c r="B12" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="F12" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="G12" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="H12" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="I12" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" s="22" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B13" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="C13" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="D13" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="E13" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="F13" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="G13" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="H13" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="J13" s="23" t="n">
+        <v>28</v>
+      </c>
+      <c r="B13" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="F13" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="G13" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="H13" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="I13" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="J13" s="22" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B14" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="C14" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="D14" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="E14" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="F14" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="G14" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="H14" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="J14" s="23" t="n">
+        <v>29</v>
+      </c>
+      <c r="B14" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="E14" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="F14" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="G14" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="H14" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="J14" s="22" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B15" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="C15" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="D15" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="E15" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="F15" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="G15" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="H15" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="J15" s="23" t="n">
+        <v>30</v>
+      </c>
+      <c r="B15" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="E15" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="F15" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="G15" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="H15" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="I15" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="J15" s="22" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B16" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="C16" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="D16" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="E16" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="F16" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="G16" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="H16" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="J16" s="23" t="n">
+        <v>31</v>
+      </c>
+      <c r="B16" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="F16" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="G16" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="H16" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="I16" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="J16" s="22" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B17" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="C17" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="D17" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="E17" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="F17" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="G17" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="H17" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="J17" s="23" t="n">
+        <v>32</v>
+      </c>
+      <c r="B17" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="C17" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="D17" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="E17" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="F17" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="G17" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="H17" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="I17" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="J17" s="22" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B18" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="C18" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="D18" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="E18" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="F18" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="G18" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="H18" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="J18" s="23" t="n">
+        <v>33</v>
+      </c>
+      <c r="B18" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="C18" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="D18" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="E18" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="F18" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="G18" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="H18" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="I18" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="J18" s="22" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B19" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="C19" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="D19" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="E19" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="F19" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="G19" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="H19" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="J19" s="23" t="n">
+        <v>34</v>
+      </c>
+      <c r="B19" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="C19" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="D19" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="E19" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="F19" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="G19" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="H19" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="I19" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="J19" s="22" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B20" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="C20" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="D20" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="E20" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="F20" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="G20" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="H20" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="J20" s="23" t="n">
+        <v>35</v>
+      </c>
+      <c r="B20" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="C20" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="D20" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="E20" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="F20" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="G20" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="H20" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="I20" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="J20" s="22" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="B21" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="C21" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="D21" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="E21" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="F21" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="G21" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="H21" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="J21" s="23" t="n">
+        <v>36</v>
+      </c>
+      <c r="B21" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="C21" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="D21" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="E21" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="F21" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="G21" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="H21" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="I21" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="J21" s="22" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="B22" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="C22" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="D22" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="E22" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="F22" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="G22" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="H22" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="J22" s="23" t="n">
+        <v>37</v>
+      </c>
+      <c r="B22" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="C22" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="D22" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="E22" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="F22" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="G22" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="H22" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="I22" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="J22" s="22" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="B23" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="C23" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="D23" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="E23" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="F23" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="G23" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="H23" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="J23" s="23" t="n">
+        <v>38</v>
+      </c>
+      <c r="B23" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="C23" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="D23" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="E23" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="F23" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="G23" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="H23" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="I23" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="J23" s="22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2532,7 +2489,7 @@
   <dimension ref="A1:L1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
+      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B11:B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2554,54 +2511,54 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="9" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B1" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="H1" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="I1" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="J1" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="K1" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="L1" s="9" t="s">
         <v>122</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="I1" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="J1" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="K1" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="L1" s="9" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
@@ -2615,21 +2572,21 @@
         <v>1</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="C3" s="24" t="s">
-        <v>132</v>
+        <v>125</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>126</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
@@ -2642,25 +2599,25 @@
       <c r="K3" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="L3" s="24" t="s">
-        <v>133</v>
+      <c r="L3" s="23" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="7" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="C4" s="24" t="s">
-        <v>132</v>
+        <v>125</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>126</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="J4" s="1" t="n">
         <v>1</v>
@@ -2668,25 +2625,25 @@
       <c r="K4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="L4" s="25" t="s">
-        <v>133</v>
+      <c r="L4" s="24" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="7" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="C5" s="25" t="s">
-        <v>135</v>
+        <v>128</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>129</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="J5" s="1" t="n">
         <v>0</v>
@@ -2694,22 +2651,22 @@
       <c r="K5" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="L5" s="25" t="s">
-        <v>137</v>
+      <c r="L5" s="24" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="7" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="C6" s="25" t="s">
-        <v>139</v>
+        <v>132</v>
+      </c>
+      <c r="C6" s="24" t="s">
+        <v>133</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="J6" s="1" t="n">
         <v>1</v>
@@ -2717,22 +2674,22 @@
       <c r="K6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="L6" s="25" t="s">
-        <v>141</v>
+      <c r="L6" s="24" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="7" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="C7" s="25" t="s">
-        <v>22</v>
+        <v>136</v>
+      </c>
+      <c r="C7" s="24" t="s">
+        <v>19</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="J7" s="1" t="n">
         <v>0</v>
@@ -2740,22 +2697,22 @@
       <c r="K7" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="L7" s="25" t="s">
-        <v>144</v>
+      <c r="L7" s="24" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="7" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="C8" s="25" t="s">
-        <v>145</v>
+        <v>132</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>139</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="J8" s="1" t="n">
         <v>0</v>
@@ -2763,22 +2720,22 @@
       <c r="K8" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="L8" s="25" t="s">
-        <v>147</v>
+      <c r="L8" s="24" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="C9" s="25" t="s">
-        <v>148</v>
+        <v>132</v>
+      </c>
+      <c r="C9" s="24" t="s">
+        <v>142</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="J9" s="1" t="n">
         <v>0</v>
@@ -2786,25 +2743,25 @@
       <c r="K9" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="L9" s="25" t="s">
-        <v>150</v>
+      <c r="L9" s="24" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="C10" s="25" t="s">
-        <v>151</v>
+        <v>125</v>
+      </c>
+      <c r="C10" s="24" t="s">
+        <v>145</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="J10" s="1" t="n">
         <v>1</v>
@@ -2812,25 +2769,25 @@
       <c r="K10" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="L10" s="25" t="s">
-        <v>152</v>
+      <c r="L10" s="24" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="7" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="C11" s="25" t="s">
-        <v>154</v>
+        <v>147</v>
+      </c>
+      <c r="C11" s="24" t="s">
+        <v>148</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="J11" s="1" t="n">
         <v>1</v>
@@ -2838,16 +2795,16 @@
       <c r="K11" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="L11" s="25" t="s">
-        <v>156</v>
+      <c r="L11" s="24" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -2863,7 +2820,7 @@
         <v>1</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
     </row>
     <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -2888,7 +2845,7 @@
   <dimension ref="A1:W1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
+      <selection pane="topLeft" activeCell="A12" activeCellId="1" sqref="B11:B12 A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2920,78 +2877,78 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="I1" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="J1" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="K1" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="L1" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="M1" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="P1" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="Q1" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="R1" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="P1" s="0" t="s">
+      <c r="S1" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="Q1" s="0" t="s">
+      <c r="T1" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="R1" s="0" t="s">
+      <c r="U1" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="S1" s="0" t="s">
+      <c r="V1" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="T1" s="0" t="s">
+      <c r="W1" s="0" t="s">
         <v>38</v>
-      </c>
-      <c r="U1" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="V1" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="W1" s="0" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B2" s="2" t="n">
         <v>0</v>
@@ -3062,7 +3019,7 @@
     </row>
     <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B3" s="2" t="n">
         <v>-1</v>
@@ -3133,7 +3090,7 @@
     </row>
     <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B4" s="2" t="n">
         <v>-1</v>
@@ -3204,7 +3161,7 @@
     </row>
     <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B5" s="2" t="n">
         <v>0</v>
@@ -3275,7 +3232,7 @@
     </row>
     <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B6" s="2" t="n">
         <v>0</v>
@@ -3346,7 +3303,7 @@
     </row>
     <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B7" s="2" t="n">
         <v>0</v>
@@ -3417,7 +3374,7 @@
     </row>
     <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B8" s="2" t="n">
         <v>0</v>
@@ -3488,7 +3445,7 @@
     </row>
     <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B9" s="2" t="n">
         <v>0</v>
@@ -3559,7 +3516,7 @@
     </row>
     <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B10" s="2" t="n">
         <v>0</v>
@@ -3630,7 +3587,7 @@
     </row>
     <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B11" s="2" t="n">
         <v>0</v>
@@ -3701,7 +3658,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B12" s="2" t="n">
         <v>0</v>
@@ -3787,10 +3744,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E5" activeCellId="0" sqref="E5"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="1" sqref="B11:B12 D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3798,477 +3755,337 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="7" width="11.79"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="7" width="30.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="7" width="8.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="7" width="6.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="7" width="8.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="7" width="9.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="7" width="8.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1012" min="8" style="0" width="8.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1021" min="1013" style="0" width="8.67"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1022" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="7" width="9.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="7" width="8.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1010" min="6" style="0" width="8.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1019" min="1011" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1020" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" s="9" t="s">
         <v>53</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="D2" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F2" s="1" t="n">
+      <c r="D2" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="D3" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="E3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" s="1" t="n">
+      <c r="D3" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="D4" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" s="1" t="n">
+      <c r="D4" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="D5" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="E5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" s="1" t="n">
+      <c r="D5" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="D6" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F6" s="1" t="n">
+      <c r="D6" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="D7" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F7" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" s="11"/>
+      <c r="D7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" s="10"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="D8" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F8" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" s="11"/>
+      <c r="D8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" s="10"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="D9" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F9" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" s="11"/>
+      <c r="D9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" s="10"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="D10" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="E10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" s="11"/>
+      <c r="D10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" s="10"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="D11" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="E11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" s="11"/>
+      <c r="D11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" s="10"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="D12" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="E12" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F12" s="1" t="n">
+      <c r="D12" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="7" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="D13" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E13" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F13" s="1" t="n">
+      <c r="D13" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="D14" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F14" s="1" t="n">
+      <c r="D14" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="7" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="D15" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E15" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F15" s="1" t="n">
+      <c r="D15" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="D16" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="E16" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F16" s="1" t="n">
+      <c r="D16" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="D17" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E17" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F17" s="1" t="n">
+      <c r="D17" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="7" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="D18" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="E18" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F18" s="1" t="n">
+      <c r="D18" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="D19" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E19" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F19" s="1" t="n">
+      <c r="D19" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="D20" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F20" s="1" t="n">
+      <c r="D20" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="D21" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E21" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F21" s="1" t="n">
+      <c r="D21" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="7" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="D22" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E22" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F22" s="1" t="n">
+      <c r="D22" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="7" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="D23" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E23" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F23" s="1" t="n">
+      <c r="D23" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4288,194 +4105,157 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E1048576"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K17" activeCellId="0" sqref="K17"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="1" sqref="B11:B12 D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="7" width="9.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="7" width="43.1"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="7" width="16.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="7" width="9.26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="7" width="10.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="6" style="7" width="8.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="7" width="10.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1023" min="5" style="7" width="8.6"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1024" style="0" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="C3" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C4" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="C5" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="C6" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" s="7" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="B2" s="7" t="s">
+      <c r="C7" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="C2" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="B3" s="7" t="s">
+      <c r="C8" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="C3" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="B4" s="7" t="s">
+      <c r="C9" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="C4" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="B5" s="7" t="s">
+      <c r="C10" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="C5" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="C6" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="C7" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="C8" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="C9" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D9" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="C10" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>91</v>
-      </c>
       <c r="C11" s="7" t="n">
         <v>0</v>
-      </c>
-      <c r="D11" s="7" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="7" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C12" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="D12" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -4495,7 +4275,7 @@
   <dimension ref="A1:E1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="B11:B12 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4509,87 +4289,87 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="8" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
+        <v>39</v>
+      </c>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
     </row>
     <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
+        <v>40</v>
+      </c>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
     </row>
     <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="7" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="7" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="7" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="7" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="7" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="7" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
+        <v>49</v>
+      </c>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
     </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
@@ -4611,7 +4391,7 @@
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="B11:B12 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4624,21 +4404,21 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="8" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -4646,7 +4426,7 @@
     </row>
     <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -4654,7 +4434,7 @@
     </row>
     <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -4662,7 +4442,7 @@
     </row>
     <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -4670,7 +4450,7 @@
     </row>
     <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="7" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -4678,7 +4458,7 @@
     </row>
     <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="7" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -4686,85 +4466,85 @@
     </row>
     <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
+        <v>23</v>
+      </c>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
     </row>
     <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="7" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="7" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="7" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="7" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="7" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -4786,7 +4566,7 @@
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A17" activeCellId="0" sqref="A17"/>
+      <selection pane="topLeft" activeCell="A17" activeCellId="1" sqref="B11:B12 A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4799,126 +4579,126 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="8" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="7" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="7" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="7" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="7" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="7" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="7" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="7" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -4940,7 +4720,7 @@
   <dimension ref="A1:C1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
+      <selection pane="topLeft" activeCell="C11" activeCellId="1" sqref="B11:B12 C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4953,133 +4733,133 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="6" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B2" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" s="14" t="n">
+        <v>39</v>
+      </c>
+      <c r="B2" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" s="13" t="n">
         <v>-50</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B3" s="14" t="n">
+        <v>40</v>
+      </c>
+      <c r="B3" s="13" t="n">
         <v>-133.737743483803</v>
       </c>
-      <c r="C3" s="14" t="n">
+      <c r="C3" s="13" t="n">
         <v>-115.839227967117</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B4" s="15" t="n">
+        <v>41</v>
+      </c>
+      <c r="B4" s="14" t="n">
         <v>-133.737743483803</v>
       </c>
-      <c r="C4" s="15" t="n">
+      <c r="C4" s="14" t="n">
         <v>-115.839227967117</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B5" s="15" t="n">
+        <v>42</v>
+      </c>
+      <c r="B5" s="14" t="n">
         <v>-13.9969595717307</v>
       </c>
-      <c r="C5" s="15" t="n">
+      <c r="C5" s="14" t="n">
         <v>-3.36434311506105</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B6" s="15" t="n">
+        <v>43</v>
+      </c>
+      <c r="B6" s="14" t="n">
         <v>-2.65360557420809</v>
       </c>
-      <c r="C6" s="15" t="n">
+      <c r="C6" s="14" t="n">
         <v>-9.16597855393775E-007</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B7" s="15" t="n">
+        <v>44</v>
+      </c>
+      <c r="B7" s="14" t="n">
         <v>-4.47107599685342</v>
       </c>
-      <c r="C7" s="15" t="n">
+      <c r="C7" s="14" t="n">
         <v>-2.27373675443232E-013</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B8" s="15" t="n">
+        <v>45</v>
+      </c>
+      <c r="B8" s="14" t="n">
         <v>-57.7519418492923</v>
       </c>
-      <c r="C8" s="15" t="n">
+      <c r="C8" s="14" t="n">
         <v>-44.1664298922258</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B9" s="15" t="n">
+        <v>46</v>
+      </c>
+      <c r="B9" s="14" t="n">
         <v>-18.758533835442</v>
       </c>
-      <c r="C9" s="15" t="n">
+      <c r="C9" s="14" t="n">
         <v>-1.90457512871944E-007</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B10" s="15" t="n">
+        <v>47</v>
+      </c>
+      <c r="B10" s="14" t="n">
         <v>-23.4753886782314</v>
       </c>
-      <c r="C10" s="15" t="n">
+      <c r="C10" s="14" t="n">
         <v>-4.01116348408095</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B11" s="15" t="n">
+        <v>48</v>
+      </c>
+      <c r="B11" s="14" t="n">
         <v>-17.5085881670439</v>
       </c>
-      <c r="C11" s="15" t="n">
+      <c r="C11" s="14" t="n">
         <v>-1.13686837721616E-012</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B12" s="14" t="n">
+        <v>49</v>
+      </c>
+      <c r="B12" s="13" t="n">
         <v>-1000</v>
       </c>
-      <c r="C12" s="14" t="n">
+      <c r="C12" s="13" t="n">
         <v>-1000</v>
       </c>
     </row>
@@ -5103,7 +4883,7 @@
   <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A23" activeCellId="0" sqref="A23"/>
+      <selection pane="topLeft" activeCell="A23" activeCellId="1" sqref="B11:B12 A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5116,254 +4896,254 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="B1" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="C1" s="16" t="s">
-        <v>102</v>
+        <v>50</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" s="17" t="n">
+        <v>18</v>
+      </c>
+      <c r="B2" s="16" t="n">
         <v>2E-005</v>
       </c>
-      <c r="C2" s="17" t="n">
+      <c r="C2" s="16" t="n">
         <v>7.5E-005</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B3" s="17" t="n">
+        <v>33</v>
+      </c>
+      <c r="B3" s="16" t="n">
         <v>0.001</v>
       </c>
-      <c r="C3" s="17" t="n">
+      <c r="C3" s="16" t="n">
         <v>0.001</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="17" t="n">
+        <v>17</v>
+      </c>
+      <c r="B4" s="16" t="n">
         <v>0.001</v>
       </c>
-      <c r="C4" s="17" t="n">
+      <c r="C4" s="16" t="n">
         <v>0.005</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B5" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="C5" s="17" t="n">
+        <v>34</v>
+      </c>
+      <c r="B5" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" s="16" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="17" t="n">
+        <v>20</v>
+      </c>
+      <c r="B6" s="16" t="n">
         <v>5E-005</v>
       </c>
-      <c r="C6" s="17" t="n">
+      <c r="C6" s="16" t="n">
         <v>0.00017</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B7" s="17" t="n">
+        <v>37</v>
+      </c>
+      <c r="B7" s="16" t="n">
         <v>0.001</v>
       </c>
-      <c r="C7" s="17" t="n">
+      <c r="C7" s="16" t="n">
         <v>0.005</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B8" s="17" t="n">
+        <v>38</v>
+      </c>
+      <c r="B8" s="16" t="n">
         <v>0.001</v>
       </c>
-      <c r="C8" s="17" t="n">
+      <c r="C8" s="16" t="n">
         <v>0.005</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="B9" s="17" t="n">
+        <v>91</v>
+      </c>
+      <c r="B9" s="16" t="n">
         <v>0.001</v>
       </c>
-      <c r="C9" s="17" t="n">
+      <c r="C9" s="16" t="n">
         <v>0.005</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" s="17" t="n">
+        <v>19</v>
+      </c>
+      <c r="B10" s="16" t="n">
         <v>3E-006</v>
       </c>
-      <c r="C10" s="17" t="n">
+      <c r="C10" s="16" t="n">
         <v>4E-005</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>98</v>
-      </c>
-      <c r="B11" s="18" t="n">
+        <v>92</v>
+      </c>
+      <c r="B11" s="17" t="n">
         <v>0.001</v>
       </c>
-      <c r="C11" s="18" t="n">
+      <c r="C11" s="17" t="n">
         <v>0.005</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" s="18" t="n">
+        <v>23</v>
+      </c>
+      <c r="B12" s="17" t="n">
         <v>1E-006</v>
       </c>
-      <c r="C12" s="18" t="n">
+      <c r="C12" s="17" t="n">
         <v>0.0001</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="B13" s="18" t="n">
+        <v>24</v>
+      </c>
+      <c r="B13" s="17" t="n">
         <v>0.0012</v>
       </c>
-      <c r="C13" s="18" t="n">
+      <c r="C13" s="17" t="n">
         <v>0.0018</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14" s="18" t="n">
+        <v>25</v>
+      </c>
+      <c r="B14" s="17" t="n">
         <v>3E-006</v>
       </c>
-      <c r="C14" s="18" t="n">
+      <c r="C14" s="17" t="n">
         <v>6E-006</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="B15" s="18" t="n">
+        <v>32</v>
+      </c>
+      <c r="B15" s="17" t="n">
         <v>4E-007</v>
       </c>
-      <c r="C15" s="18" t="n">
+      <c r="C15" s="17" t="n">
         <v>5E-005</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="B16" s="18" t="n">
+        <v>26</v>
+      </c>
+      <c r="B16" s="17" t="n">
         <v>1E-006</v>
       </c>
-      <c r="C16" s="18" t="n">
+      <c r="C16" s="17" t="n">
         <v>1.6E-005</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="B17" s="18" t="n">
+        <v>27</v>
+      </c>
+      <c r="B17" s="17" t="n">
         <v>4E-006</v>
       </c>
-      <c r="C17" s="18" t="n">
+      <c r="C17" s="17" t="n">
         <v>8E-006</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="B18" s="18" t="n">
+        <v>28</v>
+      </c>
+      <c r="B18" s="17" t="n">
         <v>0.00022</v>
       </c>
-      <c r="C18" s="18" t="n">
+      <c r="C18" s="17" t="n">
         <v>0.0073</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="B19" s="18" t="n">
+        <v>29</v>
+      </c>
+      <c r="B19" s="17" t="n">
         <v>1E-005</v>
       </c>
-      <c r="C19" s="18" t="n">
+      <c r="C19" s="17" t="n">
         <v>0.00025</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="B20" s="18" t="n">
+        <v>30</v>
+      </c>
+      <c r="B20" s="17" t="n">
         <v>0.00014</v>
       </c>
-      <c r="C20" s="18" t="n">
+      <c r="C20" s="17" t="n">
         <v>0.0018</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="B21" s="18" t="n">
+        <v>31</v>
+      </c>
+      <c r="B21" s="17" t="n">
         <v>1E-006</v>
       </c>
-      <c r="C21" s="18" t="n">
+      <c r="C21" s="17" t="n">
         <v>0.0001</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="B22" s="18" t="n">
+        <v>36</v>
+      </c>
+      <c r="B22" s="17" t="n">
         <v>0.0002</v>
       </c>
-      <c r="C22" s="18" t="n">
+      <c r="C22" s="17" t="n">
         <v>0.0003</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="B23" s="18" t="n">
+        <v>35</v>
+      </c>
+      <c r="B23" s="17" t="n">
         <v>0.0002</v>
       </c>
-      <c r="C23" s="18" t="n">
+      <c r="C23" s="17" t="n">
         <v>0.0003</v>
       </c>
     </row>

--- a/io/input/methionine_cycle_fmincon.xlsx
+++ b/io/input/methionine_cycle_fmincon.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="1" state="visible" r:id="rId2"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="152">
   <si>
     <t xml:space="preserve">General Reaction and Sampling Platform (GRASP)</t>
   </si>
@@ -191,9 +191,6 @@
   </si>
   <si>
     <t xml:space="preserve">balanced?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">measured?</t>
   </si>
   <si>
     <t xml:space="preserve">methionine</t>
@@ -650,11 +647,11 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -733,8 +730,8 @@
   </sheetPr>
   <dimension ref="A1:B1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11:B12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -860,7 +857,7 @@
   <dimension ref="A1:I1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B11:B12"/>
+      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -879,32 +876,32 @@
   </cols>
   <sheetData>
     <row r="1" s="19" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="B1" s="9" t="s">
+      <c r="A1" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="C1" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="D1" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="E1" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="F1" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="G1" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="H1" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="H1" s="18" t="s">
+      <c r="I1" s="18" t="s">
         <v>103</v>
-      </c>
-      <c r="I1" s="18" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="2" s="19" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1290,7 +1287,7 @@
   <dimension ref="A1:J1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H9" activeCellId="1" sqref="B11:B12 H9"/>
+      <selection pane="topLeft" activeCell="H9" activeCellId="0" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1310,66 +1307,66 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="B1" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="C1" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="D1" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="C1" s="18" t="s">
-        <v>99</v>
-      </c>
-      <c r="D1" s="18" t="s">
+      <c r="E1" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="F1" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="G1" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="F1" s="18" t="s">
-        <v>101</v>
-      </c>
-      <c r="G1" s="18" t="s">
+      <c r="H1" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="H1" s="18" t="s">
+      <c r="I1" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="J1" s="18" t="s">
         <v>110</v>
-      </c>
-      <c r="I1" s="18" t="s">
-        <v>103</v>
-      </c>
-      <c r="J1" s="18" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B2" s="10" t="n">
+      <c r="B2" s="9" t="n">
         <v>0.99</v>
       </c>
-      <c r="C2" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" s="10" t="n">
+      <c r="C2" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" s="9" t="n">
         <v>1.01</v>
       </c>
-      <c r="E2" s="10" t="n">
+      <c r="E2" s="9" t="n">
         <v>0.99</v>
       </c>
-      <c r="F2" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G2" s="10" t="n">
+      <c r="F2" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2" s="9" t="n">
         <v>1.01</v>
       </c>
-      <c r="H2" s="10" t="n">
+      <c r="H2" s="9" t="n">
         <v>0.99</v>
       </c>
-      <c r="I2" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" s="10" t="n">
+      <c r="I2" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J2" s="9" t="n">
         <v>1.01</v>
       </c>
     </row>
@@ -1377,31 +1374,31 @@
       <c r="A3" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="10" t="n">
+      <c r="B3" s="9" t="n">
         <v>0.99</v>
       </c>
-      <c r="C3" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" s="10" t="n">
+      <c r="C3" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" s="9" t="n">
         <v>1.01</v>
       </c>
-      <c r="E3" s="10" t="n">
+      <c r="E3" s="9" t="n">
         <v>0.99</v>
       </c>
-      <c r="F3" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G3" s="10" t="n">
+      <c r="F3" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" s="9" t="n">
         <v>1.01</v>
       </c>
-      <c r="H3" s="10" t="n">
+      <c r="H3" s="9" t="n">
         <v>0.99</v>
       </c>
-      <c r="I3" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" s="10" t="n">
+      <c r="I3" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" s="9" t="n">
         <v>1.01</v>
       </c>
     </row>
@@ -1409,31 +1406,31 @@
       <c r="A4" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="10" t="n">
+      <c r="B4" s="9" t="n">
         <v>0.99</v>
       </c>
-      <c r="C4" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" s="10" t="n">
+      <c r="C4" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" s="9" t="n">
         <v>1.01</v>
       </c>
-      <c r="E4" s="10" t="n">
+      <c r="E4" s="9" t="n">
         <v>0.99</v>
       </c>
-      <c r="F4" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G4" s="10" t="n">
+      <c r="F4" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" s="9" t="n">
         <v>1.01</v>
       </c>
-      <c r="H4" s="10" t="n">
+      <c r="H4" s="9" t="n">
         <v>0.99</v>
       </c>
-      <c r="I4" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="J4" s="10" t="n">
+      <c r="I4" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" s="9" t="n">
         <v>1.01</v>
       </c>
     </row>
@@ -1441,31 +1438,31 @@
       <c r="A5" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B5" s="10" t="n">
+      <c r="B5" s="9" t="n">
         <v>0.99</v>
       </c>
-      <c r="C5" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" s="10" t="n">
+      <c r="C5" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" s="9" t="n">
         <v>1.01</v>
       </c>
-      <c r="E5" s="10" t="n">
+      <c r="E5" s="9" t="n">
         <v>0.99</v>
       </c>
-      <c r="F5" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G5" s="10" t="n">
+      <c r="F5" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" s="9" t="n">
         <v>1.01</v>
       </c>
-      <c r="H5" s="10" t="n">
+      <c r="H5" s="9" t="n">
         <v>0.99</v>
       </c>
-      <c r="I5" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="J5" s="10" t="n">
+      <c r="I5" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" s="9" t="n">
         <v>1.01</v>
       </c>
     </row>
@@ -1473,31 +1470,31 @@
       <c r="A6" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B6" s="10" t="n">
+      <c r="B6" s="9" t="n">
         <v>0.99</v>
       </c>
-      <c r="C6" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" s="10" t="n">
+      <c r="C6" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" s="9" t="n">
         <v>1.01</v>
       </c>
-      <c r="E6" s="10" t="n">
+      <c r="E6" s="9" t="n">
         <v>0.99</v>
       </c>
-      <c r="F6" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G6" s="10" t="n">
+      <c r="F6" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" s="9" t="n">
         <v>1.01</v>
       </c>
-      <c r="H6" s="10" t="n">
+      <c r="H6" s="9" t="n">
         <v>0.99</v>
       </c>
-      <c r="I6" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="J6" s="10" t="n">
+      <c r="I6" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" s="9" t="n">
         <v>1.01</v>
       </c>
     </row>
@@ -1505,31 +1502,31 @@
       <c r="A7" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B7" s="10" t="n">
+      <c r="B7" s="9" t="n">
         <v>0.99</v>
       </c>
-      <c r="C7" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" s="10" t="n">
+      <c r="C7" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" s="9" t="n">
         <v>1.01</v>
       </c>
-      <c r="E7" s="10" t="n">
+      <c r="E7" s="9" t="n">
         <v>0.99</v>
       </c>
-      <c r="F7" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G7" s="10" t="n">
+      <c r="F7" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" s="9" t="n">
         <v>1.01</v>
       </c>
-      <c r="H7" s="10" t="n">
+      <c r="H7" s="9" t="n">
         <v>0.99</v>
       </c>
-      <c r="I7" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="J7" s="10" t="n">
+      <c r="I7" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" s="9" t="n">
         <v>1.01</v>
       </c>
     </row>
@@ -1537,31 +1534,31 @@
       <c r="A8" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B8" s="10" t="n">
+      <c r="B8" s="9" t="n">
         <v>0.99</v>
       </c>
-      <c r="C8" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="D8" s="10" t="n">
+      <c r="C8" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" s="9" t="n">
         <v>1.01</v>
       </c>
-      <c r="E8" s="10" t="n">
+      <c r="E8" s="9" t="n">
         <v>0.99</v>
       </c>
-      <c r="F8" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G8" s="10" t="n">
+      <c r="F8" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" s="9" t="n">
         <v>1.01</v>
       </c>
-      <c r="H8" s="10" t="n">
+      <c r="H8" s="9" t="n">
         <v>0.99</v>
       </c>
-      <c r="I8" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="J8" s="10" t="n">
+      <c r="I8" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" s="9" t="n">
         <v>1.01</v>
       </c>
     </row>
@@ -1569,31 +1566,31 @@
       <c r="A9" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B9" s="10" t="n">
+      <c r="B9" s="9" t="n">
         <v>0.99</v>
       </c>
-      <c r="C9" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="D9" s="10" t="n">
+      <c r="C9" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" s="9" t="n">
         <v>1.01</v>
       </c>
-      <c r="E9" s="10" t="n">
+      <c r="E9" s="9" t="n">
         <v>0.99</v>
       </c>
-      <c r="F9" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G9" s="10" t="n">
+      <c r="F9" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G9" s="9" t="n">
         <v>1.01</v>
       </c>
-      <c r="H9" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" s="10" t="n">
+      <c r="H9" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1601,31 +1598,31 @@
       <c r="A10" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B10" s="10" t="n">
+      <c r="B10" s="9" t="n">
         <v>1.5</v>
       </c>
-      <c r="C10" s="10" t="n">
+      <c r="C10" s="9" t="n">
         <v>1.5</v>
       </c>
-      <c r="D10" s="10" t="n">
+      <c r="D10" s="9" t="n">
         <v>1.5</v>
       </c>
-      <c r="E10" s="10" t="n">
+      <c r="E10" s="9" t="n">
         <v>0.99</v>
       </c>
-      <c r="F10" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G10" s="10" t="n">
+      <c r="F10" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G10" s="9" t="n">
         <v>1.01</v>
       </c>
-      <c r="H10" s="10" t="n">
+      <c r="H10" s="9" t="n">
         <v>0.99</v>
       </c>
-      <c r="I10" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="J10" s="10" t="n">
+      <c r="I10" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" s="9" t="n">
         <v>1.01</v>
       </c>
     </row>
@@ -1633,31 +1630,31 @@
       <c r="A11" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B11" s="10" t="n">
+      <c r="B11" s="9" t="n">
         <v>0.99</v>
       </c>
-      <c r="C11" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="D11" s="10" t="n">
+      <c r="C11" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" s="9" t="n">
         <v>1.01</v>
       </c>
-      <c r="E11" s="10" t="n">
+      <c r="E11" s="9" t="n">
         <v>0.2</v>
       </c>
-      <c r="F11" s="10" t="n">
+      <c r="F11" s="9" t="n">
         <v>0.2</v>
       </c>
-      <c r="G11" s="10" t="n">
+      <c r="G11" s="9" t="n">
         <v>0.2</v>
       </c>
-      <c r="H11" s="10" t="n">
+      <c r="H11" s="9" t="n">
         <v>0.99</v>
       </c>
-      <c r="I11" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="J11" s="10" t="n">
+      <c r="I11" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" s="9" t="n">
         <v>1.01</v>
       </c>
     </row>
@@ -1665,31 +1662,31 @@
       <c r="A12" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B12" s="10" t="n">
+      <c r="B12" s="9" t="n">
         <v>0.99</v>
       </c>
-      <c r="C12" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="D12" s="10" t="n">
+      <c r="C12" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" s="9" t="n">
         <v>1.01</v>
       </c>
-      <c r="E12" s="10" t="n">
+      <c r="E12" s="9" t="n">
         <v>0.99</v>
       </c>
-      <c r="F12" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G12" s="10" t="n">
+      <c r="F12" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G12" s="9" t="n">
         <v>1.01</v>
       </c>
-      <c r="H12" s="10" t="n">
+      <c r="H12" s="9" t="n">
         <v>0.99</v>
       </c>
-      <c r="I12" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="J12" s="10" t="n">
+      <c r="I12" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" s="9" t="n">
         <v>1.01</v>
       </c>
     </row>
@@ -1717,7 +1714,7 @@
   <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L32" activeCellId="1" sqref="B11:B12 L32"/>
+      <selection pane="topLeft" activeCell="L32" activeCellId="0" sqref="L32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1735,35 +1732,35 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>50</v>
       </c>
       <c r="B1" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="D1" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="C1" s="18" t="s">
-        <v>99</v>
-      </c>
-      <c r="D1" s="18" t="s">
+      <c r="E1" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="F1" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="G1" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="F1" s="18" t="s">
-        <v>101</v>
-      </c>
-      <c r="G1" s="18" t="s">
+      <c r="H1" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="H1" s="18" t="s">
+      <c r="I1" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="J1" s="18" t="s">
         <v>110</v>
-      </c>
-      <c r="I1" s="18" t="s">
-        <v>103</v>
-      </c>
-      <c r="J1" s="18" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2489,7 +2486,7 @@
   <dimension ref="A1:L1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B11:B12"/>
+      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2510,41 +2507,41 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="B1" s="9" t="s">
+      <c r="A1" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="D1" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="E1" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="F1" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="G1" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="H1" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="I1" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="J1" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="K1" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="L1" s="10" t="s">
         <v>121</v>
-      </c>
-      <c r="L1" s="9" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2552,7 +2549,7 @@
         <v>39</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>18</v>
@@ -2572,7 +2569,7 @@
         <v>1</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2580,10 +2577,10 @@
         <v>40</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C3" s="23" t="s">
         <v>125</v>
-      </c>
-      <c r="C3" s="23" t="s">
-        <v>126</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>20</v>
@@ -2600,7 +2597,7 @@
         <v>1</v>
       </c>
       <c r="L3" s="23" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2608,10 +2605,10 @@
         <v>41</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C4" s="23" t="s">
         <v>125</v>
-      </c>
-      <c r="C4" s="23" t="s">
-        <v>126</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>20</v>
@@ -2626,7 +2623,7 @@
         <v>2</v>
       </c>
       <c r="L4" s="24" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2634,13 +2631,13 @@
         <v>42</v>
       </c>
       <c r="B5" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="C5" s="24" t="s">
         <v>128</v>
       </c>
-      <c r="C5" s="24" t="s">
+      <c r="D5" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>26</v>
@@ -2652,7 +2649,7 @@
         <v>1</v>
       </c>
       <c r="L5" s="24" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2660,13 +2657,13 @@
         <v>43</v>
       </c>
       <c r="B6" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="C6" s="24" t="s">
         <v>132</v>
       </c>
-      <c r="C6" s="24" t="s">
+      <c r="D6" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>134</v>
       </c>
       <c r="J6" s="1" t="n">
         <v>1</v>
@@ -2675,7 +2672,7 @@
         <v>4</v>
       </c>
       <c r="L6" s="24" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2683,22 +2680,22 @@
         <v>44</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C7" s="24" t="s">
         <v>19</v>
       </c>
       <c r="D7" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="J7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" s="24" t="s">
         <v>137</v>
-      </c>
-      <c r="J7" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="L7" s="24" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2706,22 +2703,22 @@
         <v>45</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C8" s="24" t="s">
+        <v>138</v>
+      </c>
+      <c r="D8" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="J8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" s="24" t="s">
         <v>140</v>
-      </c>
-      <c r="J8" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="L8" s="24" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2729,22 +2726,22 @@
         <v>46</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C9" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="D9" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="J9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" s="24" t="s">
         <v>143</v>
-      </c>
-      <c r="J9" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="L9" s="24" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2752,10 +2749,10 @@
         <v>47</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>31</v>
@@ -2770,7 +2767,7 @@
         <v>2</v>
       </c>
       <c r="L10" s="24" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2778,13 +2775,13 @@
         <v>48</v>
       </c>
       <c r="B11" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="C11" s="24" t="s">
         <v>147</v>
       </c>
-      <c r="C11" s="24" t="s">
+      <c r="D11" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>149</v>
       </c>
       <c r="H11" s="7" t="s">
         <v>20</v>
@@ -2796,7 +2793,7 @@
         <v>2</v>
       </c>
       <c r="L11" s="24" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2804,7 +2801,7 @@
         <v>49</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -2820,7 +2817,7 @@
         <v>1</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -2845,7 +2842,7 @@
   <dimension ref="A1:W1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A12" activeCellId="1" sqref="B11:B12 A12"/>
+      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3744,10 +3741,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="1" sqref="B11:B12 D1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3755,11 +3752,10 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="7" width="11.79"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="7" width="30.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="7" width="8.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="7" width="9.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="7" width="8.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1010" min="6" style="0" width="8.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1019" min="1011" style="0" width="8.67"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1020" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="7" width="8.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1009" min="5" style="0" width="8.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1018" min="1010" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1019" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3772,9 +3768,6 @@
       <c r="C1" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="D1" s="9" t="s">
-        <v>53</v>
-      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="s">
@@ -3786,22 +3779,16 @@
       <c r="C2" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="D2" s="1" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="7" t="s">
         <v>18</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1</v>
-      </c>
-      <c r="D3" s="1" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3809,13 +3796,10 @@
         <v>19</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1</v>
-      </c>
-      <c r="D4" s="1" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3823,13 +3807,10 @@
         <v>20</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1</v>
-      </c>
-      <c r="D5" s="1" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3837,12 +3818,9 @@
         <v>21</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3851,87 +3829,69 @@
         <v>22</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="D7" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" s="10"/>
+      <c r="D7" s="9"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="7" t="s">
         <v>23</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="D8" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" s="10"/>
+      <c r="D8" s="9"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="7" t="s">
         <v>24</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="D9" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" s="10"/>
+      <c r="D9" s="9"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="7" t="s">
         <v>25</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="D10" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" s="10"/>
+      <c r="D10" s="9"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="7" t="s">
         <v>26</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="D11" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" s="10"/>
+      <c r="D11" s="9"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="7" t="s">
         <v>27</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D12" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3945,21 +3905,15 @@
       <c r="C13" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="D13" s="1" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="7" t="s">
         <v>29</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3968,12 +3922,9 @@
         <v>30</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C15" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D15" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3982,12 +3933,9 @@
         <v>31</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D16" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3996,12 +3944,9 @@
         <v>32</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C17" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D17" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4010,12 +3955,9 @@
         <v>33</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C18" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D18" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4024,12 +3966,9 @@
         <v>34</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C19" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D19" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4043,9 +3982,6 @@
       <c r="C20" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="D20" s="1" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="7" t="s">
@@ -4057,21 +3993,15 @@
       <c r="C21" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="D21" s="1" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="7" t="s">
         <v>37</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C22" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D22" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4080,12 +4010,9 @@
         <v>38</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C23" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D23" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4108,7 +4035,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="1" sqref="B11:B12 D1"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4123,16 +4050,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="C1" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="D1" s="10" t="s">
         <v>74</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4140,7 +4067,7 @@
         <v>39</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C2" s="7" t="n">
         <v>0</v>
@@ -4151,7 +4078,7 @@
         <v>40</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C3" s="7" t="n">
         <v>0</v>
@@ -4162,7 +4089,7 @@
         <v>41</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C4" s="7" t="n">
         <v>0</v>
@@ -4173,7 +4100,7 @@
         <v>42</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C5" s="7" t="n">
         <v>0</v>
@@ -4184,7 +4111,7 @@
         <v>43</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C6" s="7" t="n">
         <v>0</v>
@@ -4195,7 +4122,7 @@
         <v>44</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C7" s="7" t="n">
         <v>0</v>
@@ -4206,7 +4133,7 @@
         <v>45</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C8" s="7" t="n">
         <v>0</v>
@@ -4217,7 +4144,7 @@
         <v>46</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C9" s="7" t="n">
         <v>0</v>
@@ -4228,7 +4155,7 @@
         <v>47</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C10" s="7" t="n">
         <v>0</v>
@@ -4239,7 +4166,7 @@
         <v>48</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C11" s="7" t="n">
         <v>0</v>
@@ -4250,7 +4177,7 @@
         <v>49</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C12" s="7" t="n">
         <v>1</v>
@@ -4275,7 +4202,7 @@
   <dimension ref="A1:E1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="B11:B12 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4289,19 +4216,19 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="B1" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="C1" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="D1" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="E1" s="10" t="s">
         <v>89</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4391,7 +4318,7 @@
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="B11:B12 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4406,14 +4333,14 @@
       <c r="A1" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="C1" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="D1" s="10" t="s">
         <v>89</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4450,7 +4377,7 @@
     </row>
     <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -4458,7 +4385,7 @@
     </row>
     <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -4566,7 +4493,7 @@
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A17" activeCellId="1" sqref="B11:B12 A17"/>
+      <selection pane="topLeft" activeCell="A17" activeCellId="0" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4581,14 +4508,14 @@
       <c r="A1" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="C1" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="D1" s="10" t="s">
         <v>89</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4613,12 +4540,12 @@
     </row>
     <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4720,7 +4647,7 @@
   <dimension ref="A1:C1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C11" activeCellId="1" sqref="B11:B12 C11"/>
+      <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4733,13 +4660,13 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B1" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>93</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4883,7 +4810,7 @@
   <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A23" activeCellId="1" sqref="B11:B12 A23"/>
+      <selection pane="topLeft" activeCell="A23" activeCellId="0" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4899,10 +4826,10 @@
         <v>50</v>
       </c>
       <c r="B1" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="C1" s="15" t="s">
         <v>95</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4984,7 +4911,7 @@
     </row>
     <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B9" s="16" t="n">
         <v>0.001</v>
@@ -5006,7 +4933,7 @@
     </row>
     <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B11" s="17" t="n">
         <v>0.001</v>

--- a/io/input/methionine_cycle_fmincon.xlsx
+++ b/io/input/methionine_cycle_fmincon.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="1" state="visible" r:id="rId2"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="154">
   <si>
     <t xml:space="preserve">General Reaction and Sampling Platform (GRASP)</t>
   </si>
@@ -58,6 +58,15 @@
   </si>
   <si>
     <t xml:space="preserve">gurobi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prior distribution for fluxes (uniform or normal)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">normal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prior distribution for thermodynamic quantities (uniform or normal)</t>
   </si>
   <si>
     <t xml:space="preserve">Number of exp. conditions (excluding reference state)</t>
@@ -498,7 +507,7 @@
     <numFmt numFmtId="168" formatCode="0.00"/>
     <numFmt numFmtId="169" formatCode="0.000"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -528,6 +537,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
@@ -606,7 +621,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -635,6 +650,14 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -643,7 +666,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -675,7 +698,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -720,10 +743,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -771,49 +794,49 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="s">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="5" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="s">
+      <c r="B6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="5" t="n">
-        <v>1</v>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B8" s="5" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B9" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B10" s="5" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B11" s="5" t="n">
         <v>0</v>
@@ -821,9 +844,25 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B12" s="5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="5" t="n">
         <v>0.5</v>
       </c>
     </row>
@@ -846,406 +885,406 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H9" activeCellId="0" sqref="H9"/>
+      <selection pane="topLeft" activeCell="H9" activeCellId="1" sqref="B7 H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="5" width="16.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="5" width="7.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="5" width="7.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="5" width="10.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="5" width="7.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="5" width="7.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="5" width="7.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="5" width="10.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="5" width="7.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="5" width="7.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="5" width="7.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="5" width="10.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="5" width="7.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1019" min="11" style="7" width="8.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1020" style="7" width="8.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1019" min="11" style="9" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1020" style="9" width="8.83"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="B1" s="17" t="s">
+      <c r="A1" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="H1" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="C1" s="17" t="s">
-        <v>97</v>
-      </c>
-      <c r="D1" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="E1" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="F1" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="G1" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="H1" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="I1" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="J1" s="17" t="s">
-        <v>109</v>
+      <c r="J1" s="19" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B2" s="9" t="n">
+        <v>42</v>
+      </c>
+      <c r="B2" s="11" t="n">
         <v>0.99</v>
       </c>
-      <c r="C2" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" s="9" t="n">
+      <c r="C2" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" s="11" t="n">
         <v>1.01</v>
       </c>
-      <c r="E2" s="9" t="n">
+      <c r="E2" s="11" t="n">
         <v>0.99</v>
       </c>
-      <c r="F2" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="G2" s="9" t="n">
+      <c r="F2" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2" s="11" t="n">
         <v>1.01</v>
       </c>
-      <c r="H2" s="9" t="n">
+      <c r="H2" s="11" t="n">
         <v>0.99</v>
       </c>
-      <c r="I2" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" s="9" t="n">
+      <c r="I2" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="J2" s="11" t="n">
         <v>1.01</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B3" s="9" t="n">
+        <v>43</v>
+      </c>
+      <c r="B3" s="11" t="n">
         <v>0.99</v>
       </c>
-      <c r="C3" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" s="9" t="n">
+      <c r="C3" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" s="11" t="n">
         <v>1.01</v>
       </c>
-      <c r="E3" s="9" t="n">
+      <c r="E3" s="11" t="n">
         <v>0.99</v>
       </c>
-      <c r="F3" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="G3" s="9" t="n">
+      <c r="F3" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" s="11" t="n">
         <v>1.01</v>
       </c>
-      <c r="H3" s="9" t="n">
+      <c r="H3" s="11" t="n">
         <v>0.99</v>
       </c>
-      <c r="I3" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" s="9" t="n">
+      <c r="I3" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" s="11" t="n">
         <v>1.01</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B4" s="9" t="n">
+        <v>44</v>
+      </c>
+      <c r="B4" s="11" t="n">
         <v>0.99</v>
       </c>
-      <c r="C4" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" s="9" t="n">
+      <c r="C4" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" s="11" t="n">
         <v>1.01</v>
       </c>
-      <c r="E4" s="9" t="n">
+      <c r="E4" s="11" t="n">
         <v>0.99</v>
       </c>
-      <c r="F4" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="G4" s="9" t="n">
+      <c r="F4" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" s="11" t="n">
         <v>1.01</v>
       </c>
-      <c r="H4" s="9" t="n">
+      <c r="H4" s="11" t="n">
         <v>0.99</v>
       </c>
-      <c r="I4" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="J4" s="9" t="n">
+      <c r="I4" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" s="11" t="n">
         <v>1.01</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B5" s="9" t="n">
+        <v>45</v>
+      </c>
+      <c r="B5" s="11" t="n">
         <v>0.99</v>
       </c>
-      <c r="C5" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" s="9" t="n">
+      <c r="C5" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" s="11" t="n">
         <v>1.01</v>
       </c>
-      <c r="E5" s="9" t="n">
+      <c r="E5" s="11" t="n">
         <v>0.99</v>
       </c>
-      <c r="F5" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="G5" s="9" t="n">
+      <c r="F5" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" s="11" t="n">
         <v>1.01</v>
       </c>
-      <c r="H5" s="9" t="n">
+      <c r="H5" s="11" t="n">
         <v>0.99</v>
       </c>
-      <c r="I5" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="J5" s="9" t="n">
+      <c r="I5" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" s="11" t="n">
         <v>1.01</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B6" s="9" t="n">
+        <v>46</v>
+      </c>
+      <c r="B6" s="11" t="n">
         <v>0.99</v>
       </c>
-      <c r="C6" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" s="9" t="n">
+      <c r="C6" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" s="11" t="n">
         <v>1.01</v>
       </c>
-      <c r="E6" s="9" t="n">
+      <c r="E6" s="11" t="n">
         <v>0.99</v>
       </c>
-      <c r="F6" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="G6" s="9" t="n">
+      <c r="F6" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" s="11" t="n">
         <v>1.01</v>
       </c>
-      <c r="H6" s="9" t="n">
+      <c r="H6" s="11" t="n">
         <v>0.99</v>
       </c>
-      <c r="I6" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="J6" s="9" t="n">
+      <c r="I6" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" s="11" t="n">
         <v>1.01</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B7" s="9" t="n">
+        <v>47</v>
+      </c>
+      <c r="B7" s="11" t="n">
         <v>0.99</v>
       </c>
-      <c r="C7" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" s="9" t="n">
+      <c r="C7" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" s="11" t="n">
         <v>1.01</v>
       </c>
-      <c r="E7" s="9" t="n">
+      <c r="E7" s="11" t="n">
         <v>0.99</v>
       </c>
-      <c r="F7" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="G7" s="9" t="n">
+      <c r="F7" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" s="11" t="n">
         <v>1.01</v>
       </c>
-      <c r="H7" s="9" t="n">
+      <c r="H7" s="11" t="n">
         <v>0.99</v>
       </c>
-      <c r="I7" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="J7" s="9" t="n">
+      <c r="I7" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" s="11" t="n">
         <v>1.01</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B8" s="9" t="n">
+        <v>48</v>
+      </c>
+      <c r="B8" s="11" t="n">
         <v>0.99</v>
       </c>
-      <c r="C8" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D8" s="9" t="n">
+      <c r="C8" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" s="11" t="n">
         <v>1.01</v>
       </c>
-      <c r="E8" s="9" t="n">
+      <c r="E8" s="11" t="n">
         <v>0.99</v>
       </c>
-      <c r="F8" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="G8" s="9" t="n">
+      <c r="F8" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" s="11" t="n">
         <v>1.01</v>
       </c>
-      <c r="H8" s="9" t="n">
+      <c r="H8" s="11" t="n">
         <v>0.99</v>
       </c>
-      <c r="I8" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="J8" s="9" t="n">
+      <c r="I8" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" s="11" t="n">
         <v>1.01</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B9" s="9" t="n">
+        <v>49</v>
+      </c>
+      <c r="B9" s="11" t="n">
         <v>0.99</v>
       </c>
-      <c r="C9" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D9" s="9" t="n">
+      <c r="C9" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" s="11" t="n">
         <v>1.01</v>
       </c>
-      <c r="E9" s="9" t="n">
+      <c r="E9" s="11" t="n">
         <v>0.99</v>
       </c>
-      <c r="F9" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="G9" s="9" t="n">
+      <c r="F9" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="G9" s="11" t="n">
         <v>1.01</v>
       </c>
-      <c r="H9" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" s="9" t="n">
+      <c r="H9" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" s="11" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B10" s="9" t="n">
+        <v>50</v>
+      </c>
+      <c r="B10" s="11" t="n">
         <v>1.5</v>
       </c>
-      <c r="C10" s="9" t="n">
+      <c r="C10" s="11" t="n">
         <v>1.5</v>
       </c>
-      <c r="D10" s="9" t="n">
+      <c r="D10" s="11" t="n">
         <v>1.5</v>
       </c>
-      <c r="E10" s="9" t="n">
+      <c r="E10" s="11" t="n">
         <v>0.99</v>
       </c>
-      <c r="F10" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="G10" s="9" t="n">
+      <c r="F10" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="G10" s="11" t="n">
         <v>1.01</v>
       </c>
-      <c r="H10" s="9" t="n">
+      <c r="H10" s="11" t="n">
         <v>0.99</v>
       </c>
-      <c r="I10" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="J10" s="9" t="n">
+      <c r="I10" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" s="11" t="n">
         <v>1.01</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B11" s="9" t="n">
+        <v>51</v>
+      </c>
+      <c r="B11" s="11" t="n">
         <v>0.99</v>
       </c>
-      <c r="C11" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D11" s="9" t="n">
+      <c r="C11" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" s="11" t="n">
         <v>1.01</v>
       </c>
-      <c r="E11" s="9" t="n">
+      <c r="E11" s="11" t="n">
         <v>0.2</v>
       </c>
-      <c r="F11" s="9" t="n">
+      <c r="F11" s="11" t="n">
         <v>0.2</v>
       </c>
-      <c r="G11" s="9" t="n">
+      <c r="G11" s="11" t="n">
         <v>0.2</v>
       </c>
-      <c r="H11" s="9" t="n">
+      <c r="H11" s="11" t="n">
         <v>0.99</v>
       </c>
-      <c r="I11" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="J11" s="9" t="n">
+      <c r="I11" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" s="11" t="n">
         <v>1.01</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B12" s="9" t="n">
+        <v>52</v>
+      </c>
+      <c r="B12" s="11" t="n">
         <v>0.99</v>
       </c>
-      <c r="C12" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D12" s="9" t="n">
+      <c r="C12" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" s="11" t="n">
         <v>1.01</v>
       </c>
-      <c r="E12" s="9" t="n">
+      <c r="E12" s="11" t="n">
         <v>0.99</v>
       </c>
-      <c r="F12" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="G12" s="9" t="n">
+      <c r="F12" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="G12" s="11" t="n">
         <v>1.01</v>
       </c>
-      <c r="H12" s="9" t="n">
+      <c r="H12" s="11" t="n">
         <v>0.99</v>
       </c>
-      <c r="I12" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="J12" s="9" t="n">
+      <c r="I12" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" s="11" t="n">
         <v>1.01</v>
       </c>
     </row>
@@ -1268,7 +1307,7 @@
   <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L32" activeCellId="0" sqref="L32"/>
+      <selection pane="topLeft" activeCell="L32" activeCellId="1" sqref="B7 L32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1285,738 +1324,738 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="B1" s="17" t="s">
+      <c r="A1" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="H1" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="C1" s="17" t="s">
-        <v>97</v>
-      </c>
-      <c r="D1" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="E1" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="F1" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="G1" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="H1" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="I1" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="J1" s="17" t="s">
-        <v>109</v>
+      <c r="J1" s="19" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="F2" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="G2" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="H2" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" s="21" t="n">
+      <c r="A2" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="J2" s="23" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="21" t="n">
+      <c r="A3" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="23" t="n">
         <v>0.001</v>
       </c>
-      <c r="C3" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" s="21" t="n">
+      <c r="C3" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" s="23" t="n">
         <v>10</v>
       </c>
-      <c r="E3" s="21" t="n">
+      <c r="E3" s="23" t="n">
         <v>0.001</v>
       </c>
-      <c r="F3" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="G3" s="21" t="n">
+      <c r="F3" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" s="23" t="n">
         <v>10</v>
       </c>
-      <c r="H3" s="21" t="n">
+      <c r="H3" s="23" t="n">
         <v>0.001</v>
       </c>
-      <c r="I3" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" s="21" t="n">
+      <c r="I3" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" s="23" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="21" t="n">
+      <c r="A4" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="23" t="n">
         <v>0.001</v>
       </c>
-      <c r="C4" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" s="21" t="n">
+      <c r="C4" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" s="23" t="n">
         <v>10</v>
       </c>
-      <c r="E4" s="21" t="n">
+      <c r="E4" s="23" t="n">
         <v>0.001</v>
       </c>
-      <c r="F4" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="G4" s="21" t="n">
+      <c r="F4" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" s="23" t="n">
         <v>10</v>
       </c>
-      <c r="H4" s="21" t="n">
+      <c r="H4" s="23" t="n">
         <v>0.001</v>
       </c>
-      <c r="I4" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="J4" s="21" t="n">
+      <c r="I4" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" s="23" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="21" t="n">
+      <c r="A5" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="23" t="n">
         <v>0.001</v>
       </c>
-      <c r="C5" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" s="21" t="n">
+      <c r="C5" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" s="23" t="n">
         <v>10</v>
       </c>
-      <c r="E5" s="21" t="n">
+      <c r="E5" s="23" t="n">
         <v>0.001</v>
       </c>
-      <c r="F5" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="G5" s="21" t="n">
+      <c r="F5" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" s="23" t="n">
         <v>10</v>
       </c>
-      <c r="H5" s="21" t="n">
+      <c r="H5" s="23" t="n">
         <v>0.001</v>
       </c>
-      <c r="I5" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="J5" s="21" t="n">
+      <c r="I5" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" s="23" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="C6" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="E6" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="F6" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="G6" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="H6" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="J6" s="21" t="n">
+      <c r="A6" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" s="23" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="E7" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="F7" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="G7" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="H7" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="J7" s="21" t="n">
+      <c r="A7" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" s="23" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="C8" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="D8" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="E8" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="F8" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="G8" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="H8" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="J8" s="21" t="n">
+      <c r="A8" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="H8" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" s="23" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="C9" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="D9" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="E9" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="F9" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="G9" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="H9" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="J9" s="21" t="n">
+      <c r="A9" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="G9" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="H9" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" s="23" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" s="21" t="n">
+      <c r="A10" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="23" t="n">
         <v>0.001</v>
       </c>
-      <c r="C10" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="D10" s="21" t="n">
+      <c r="C10" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" s="23" t="n">
         <v>10</v>
       </c>
-      <c r="E10" s="21" t="n">
+      <c r="E10" s="23" t="n">
         <v>0.001</v>
       </c>
-      <c r="F10" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="G10" s="21" t="n">
+      <c r="F10" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="G10" s="23" t="n">
         <v>10</v>
       </c>
-      <c r="H10" s="21" t="n">
+      <c r="H10" s="23" t="n">
         <v>0.001</v>
       </c>
-      <c r="I10" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="J10" s="21" t="n">
+      <c r="I10" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" s="23" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" s="21" t="n">
+      <c r="A11" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="23" t="n">
         <v>0.001</v>
       </c>
-      <c r="C11" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="D11" s="21" t="n">
+      <c r="C11" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" s="23" t="n">
         <v>10</v>
       </c>
-      <c r="E11" s="21" t="n">
+      <c r="E11" s="23" t="n">
         <v>0.001</v>
       </c>
-      <c r="F11" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="G11" s="21" t="n">
+      <c r="F11" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="G11" s="23" t="n">
         <v>10</v>
       </c>
-      <c r="H11" s="21" t="n">
+      <c r="H11" s="23" t="n">
         <v>0.001</v>
       </c>
-      <c r="I11" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="J11" s="21" t="n">
+      <c r="I11" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" s="23" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B12" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="C12" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="D12" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="E12" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="F12" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="G12" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="H12" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="J12" s="21" t="n">
+      <c r="A12" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="F12" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="G12" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="H12" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="I12" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" s="23" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B13" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="C13" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="D13" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="E13" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="F13" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="G13" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="H13" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="J13" s="21" t="n">
+      <c r="A13" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="F13" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="G13" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="H13" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="I13" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="J13" s="23" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="C14" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="D14" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="E14" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="F14" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="G14" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="H14" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="J14" s="21" t="n">
+      <c r="A14" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="E14" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="F14" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="G14" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="H14" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="J14" s="23" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B15" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="C15" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="D15" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="E15" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="F15" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="G15" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="H15" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="J15" s="21" t="n">
+      <c r="A15" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="E15" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="F15" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="G15" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="H15" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="I15" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="J15" s="23" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B16" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="C16" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="D16" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="E16" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="F16" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="G16" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="H16" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="J16" s="21" t="n">
+      <c r="A16" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="F16" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="G16" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="H16" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="I16" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="J16" s="23" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="C17" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="D17" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="E17" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="F17" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="G17" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="H17" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="J17" s="21" t="n">
+      <c r="A17" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="C17" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="D17" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="E17" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="F17" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="G17" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="H17" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="I17" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="J17" s="23" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B18" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="C18" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="D18" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="E18" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="F18" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="G18" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="H18" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="J18" s="21" t="n">
+      <c r="A18" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="C18" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="D18" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="E18" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="F18" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="G18" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="H18" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="I18" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="J18" s="23" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B19" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="C19" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="D19" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="E19" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="F19" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="G19" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="H19" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="J19" s="21" t="n">
+      <c r="A19" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="C19" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="D19" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="E19" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="F19" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="G19" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="H19" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="I19" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="J19" s="23" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B20" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="C20" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="D20" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="E20" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="F20" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="G20" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="H20" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="J20" s="21" t="n">
+      <c r="A20" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="C20" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="D20" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="E20" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="F20" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="G20" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="H20" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="I20" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="J20" s="23" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B21" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="C21" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="D21" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="E21" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="F21" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="G21" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="H21" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="J21" s="21" t="n">
+      <c r="A21" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="C21" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="D21" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="E21" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="F21" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="G21" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="H21" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="I21" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="J21" s="23" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B22" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="C22" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="D22" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="E22" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="F22" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="G22" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="H22" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="J22" s="21" t="n">
+      <c r="A22" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="C22" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="D22" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="E22" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="F22" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="G22" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="H22" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="I22" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="J22" s="23" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B23" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="C23" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="D23" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="E23" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="F23" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="G23" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="H23" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="J23" s="21" t="n">
+      <c r="A23" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B23" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="C23" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="D23" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="E23" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="F23" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="G23" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="H23" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="I23" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="J23" s="23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2039,76 +2078,76 @@
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
+      <selection pane="topLeft" activeCell="B12" activeCellId="1" sqref="B7 B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="7" width="9.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="7" width="33.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="7" width="13.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="7" width="11.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="7" width="10.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="7" width="8.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="7" width="8.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="7" width="14.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="7" width="14.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="7" width="8"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="7" width="7.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="7" width="80.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="9" width="9.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="9" width="33.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="9" width="13.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="9" width="11.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="9" width="10.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="9" width="8.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="9" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="9" width="14.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="9" width="14.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="9" width="8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="9" width="7.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="9" width="80.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="13" style="0" width="8.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="E1" s="10" t="s">
+      <c r="A1" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="C1" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="D1" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="E1" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="F1" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="G1" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="H1" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="I1" s="12" t="s">
         <v>120</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="L1" s="12" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
@@ -2122,21 +2161,21 @@
         <v>1</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C3" s="22" t="s">
-        <v>124</v>
+        <v>126</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>127</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
@@ -2149,25 +2188,25 @@
       <c r="K3" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="L3" s="22" t="s">
-        <v>125</v>
+      <c r="L3" s="24" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="7" t="s">
-        <v>41</v>
+      <c r="A4" s="9" t="s">
+        <v>44</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C4" s="22" t="s">
-        <v>124</v>
+        <v>126</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>127</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I4" s="7" t="s">
-        <v>20</v>
+        <v>23</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>23</v>
       </c>
       <c r="J4" s="1" t="n">
         <v>1</v>
@@ -2175,25 +2214,25 @@
       <c r="K4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="L4" s="23" t="s">
-        <v>125</v>
+      <c r="L4" s="25" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="C5" s="23" t="s">
-        <v>127</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>26</v>
+      <c r="A5" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>29</v>
       </c>
       <c r="J5" s="1" t="n">
         <v>0</v>
@@ -2201,22 +2240,22 @@
       <c r="K5" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="L5" s="23" t="s">
-        <v>129</v>
+      <c r="L5" s="25" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="C6" s="23" t="s">
-        <v>131</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>132</v>
+      <c r="A6" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>134</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>135</v>
       </c>
       <c r="J6" s="1" t="n">
         <v>1</v>
@@ -2224,45 +2263,45 @@
       <c r="K6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="L6" s="23" t="s">
+      <c r="L6" s="25" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="C7" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="J7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" s="25" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" s="9" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="C7" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="J7" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="L7" s="23" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="C8" s="23" t="s">
-        <v>137</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>138</v>
+      <c r="C8" s="25" t="s">
+        <v>140</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>141</v>
       </c>
       <c r="J8" s="1" t="n">
         <v>0</v>
@@ -2270,22 +2309,22 @@
       <c r="K8" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="L8" s="23" t="s">
-        <v>139</v>
+      <c r="L8" s="25" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="C9" s="23" t="s">
-        <v>140</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>141</v>
+      <c r="A9" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="C9" s="25" t="s">
+        <v>143</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>144</v>
       </c>
       <c r="J9" s="1" t="n">
         <v>0</v>
@@ -2293,25 +2332,25 @@
       <c r="K9" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="L9" s="23" t="s">
-        <v>142</v>
+      <c r="L9" s="25" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="C10" s="23" t="s">
-        <v>143</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="I10" s="7" t="s">
-        <v>20</v>
+      <c r="A10" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="C10" s="25" t="s">
+        <v>146</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>23</v>
       </c>
       <c r="J10" s="1" t="n">
         <v>1</v>
@@ -2319,25 +2358,25 @@
       <c r="K10" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="L10" s="23" t="s">
-        <v>144</v>
+      <c r="L10" s="25" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="C11" s="23" t="s">
-        <v>146</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>20</v>
+      <c r="A11" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="C11" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>23</v>
       </c>
       <c r="J11" s="1" t="n">
         <v>1</v>
@@ -2345,16 +2384,16 @@
       <c r="K11" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="L11" s="23" t="s">
-        <v>148</v>
+      <c r="L11" s="25" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -2370,7 +2409,7 @@
         <v>1</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -2392,28 +2431,28 @@
   <dimension ref="A1:W12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
+      <selection pane="topLeft" activeCell="A12" activeCellId="1" sqref="B7 A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="7.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="8.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="10.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="10.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="6.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="4.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="7" width="7.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="7" width="3.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="7" width="3.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="7" width="3.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="9" width="7.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="9" width="3.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="9" width="3.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="9" width="3.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="4.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="2.84"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="13" style="0" width="6.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="2.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="5.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="17" style="0" width="3.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="3.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="3.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="4.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="5.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="3.16"/>
@@ -2423,78 +2462,78 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="I1" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="G1" s="9" t="s">
         <v>25</v>
       </c>
+      <c r="H1" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>28</v>
+      </c>
       <c r="K1" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" s="0" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" s="0" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" s="0" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B2" s="2" t="n">
         <v>0</v>
@@ -2511,16 +2550,16 @@
       <c r="F2" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="G2" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" s="7" t="n">
+      <c r="G2" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" s="9" t="n">
         <v>0</v>
       </c>
       <c r="K2" s="0" t="n">
@@ -2565,7 +2604,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B3" s="2" t="n">
         <v>-1</v>
@@ -2582,16 +2621,16 @@
       <c r="F3" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="G3" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" s="7" t="n">
+      <c r="G3" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" s="9" t="n">
         <v>0</v>
       </c>
       <c r="K3" s="0" t="n">
@@ -2636,7 +2675,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B4" s="2" t="n">
         <v>-1</v>
@@ -2653,16 +2692,16 @@
       <c r="F4" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="G4" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" s="7" t="n">
+      <c r="G4" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" s="9" t="n">
         <v>0</v>
       </c>
       <c r="K4" s="0" t="n">
@@ -2707,7 +2746,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B5" s="2" t="n">
         <v>0</v>
@@ -2724,16 +2763,16 @@
       <c r="F5" s="2" t="n">
         <v>-1</v>
       </c>
-      <c r="G5" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="H5" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" s="7" t="n">
+      <c r="G5" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" s="9" t="n">
         <v>0</v>
       </c>
       <c r="K5" s="0" t="n">
@@ -2778,7 +2817,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B6" s="2" t="n">
         <v>0</v>
@@ -2795,16 +2834,16 @@
       <c r="F6" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="G6" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" s="7" t="n">
+      <c r="G6" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" s="9" t="n">
         <v>-1</v>
       </c>
-      <c r="J6" s="7" t="n">
+      <c r="J6" s="9" t="n">
         <v>0</v>
       </c>
       <c r="K6" s="0" t="n">
@@ -2849,7 +2888,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B7" s="2" t="n">
         <v>0</v>
@@ -2866,16 +2905,16 @@
       <c r="F7" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="G7" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" s="7" t="n">
+      <c r="G7" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" s="9" t="n">
         <v>1</v>
       </c>
       <c r="K7" s="0" t="n">
@@ -2920,7 +2959,7 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B8" s="2" t="n">
         <v>0</v>
@@ -2937,16 +2976,16 @@
       <c r="F8" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="G8" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" s="7" t="n">
+      <c r="G8" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" s="9" t="n">
         <v>-1</v>
       </c>
       <c r="K8" s="0" t="n">
@@ -2991,7 +3030,7 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B9" s="2" t="n">
         <v>0</v>
@@ -3008,16 +3047,16 @@
       <c r="F9" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="G9" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" s="7" t="n">
+      <c r="G9" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" s="9" t="n">
         <v>-1</v>
       </c>
       <c r="K9" s="0" t="n">
@@ -3062,7 +3101,7 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B10" s="2" t="n">
         <v>0</v>
@@ -3079,16 +3118,16 @@
       <c r="F10" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="G10" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" s="7" t="n">
+      <c r="G10" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" s="9" t="n">
         <v>-1</v>
       </c>
       <c r="K10" s="0" t="n">
@@ -3133,7 +3172,7 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B11" s="2" t="n">
         <v>0</v>
@@ -3150,16 +3189,16 @@
       <c r="F11" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="G11" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" s="7" t="n">
+      <c r="G11" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" s="9" t="n">
         <v>0</v>
       </c>
       <c r="K11" s="0" t="n">
@@ -3204,7 +3243,7 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B12" s="2" t="n">
         <v>0</v>
@@ -3221,16 +3260,16 @@
       <c r="F12" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="G12" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" s="7" t="n">
+      <c r="G12" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" s="9" t="n">
         <v>0</v>
       </c>
       <c r="K12" s="0" t="n">
@@ -3292,272 +3331,272 @@
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="1" sqref="B7 D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="7" width="11.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="7" width="30.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="7" width="8.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="7" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="9" width="11.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="9" width="30.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="9" width="8.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="9" width="8.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1018" min="5" style="0" width="8.67"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1019" style="0" width="11.5"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>52</v>
+      <c r="A1" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>17</v>
+      <c r="A2" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>20</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>53</v>
+      <c r="A3" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>56</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>54</v>
+      <c r="A4" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>57</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>55</v>
+      <c r="A5" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>58</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>56</v>
+      <c r="A6" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>59</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>57</v>
+      <c r="A7" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>60</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="D7" s="9"/>
+      <c r="D7" s="11"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>58</v>
+      <c r="A8" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>61</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="D8" s="9"/>
+      <c r="D8" s="11"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>59</v>
+      <c r="A9" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>62</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="D9" s="9"/>
+      <c r="D9" s="11"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>60</v>
+      <c r="A10" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>63</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="D10" s="9"/>
+      <c r="D10" s="11"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>61</v>
+      <c r="A11" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>64</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="D11" s="9"/>
+      <c r="D11" s="11"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>62</v>
+      <c r="A12" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>65</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>28</v>
+      <c r="A13" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>63</v>
+      <c r="A14" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>66</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>64</v>
+      <c r="A15" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>67</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>65</v>
+      <c r="A16" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>68</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>66</v>
+      <c r="A17" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>69</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>67</v>
+      <c r="A18" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>70</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>68</v>
+      <c r="A19" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>71</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>35</v>
+      <c r="A20" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>38</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>36</v>
+      <c r="A21" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>39</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>69</v>
+      <c r="A22" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>72</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>70</v>
+      <c r="A23" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>73</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>0</v>
@@ -3581,152 +3620,152 @@
   </sheetPr>
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D1" activeCellId="1" sqref="B7 D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="7" width="9.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="7" width="43.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="7" width="16.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="7" width="10.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1023" min="5" style="7" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="9" width="9.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="9" width="43.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="9" width="16.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="9" width="10.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1023" min="5" style="9" width="8.67"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1024" style="0" width="11.5"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="D1" s="10" t="s">
+      <c r="A1" s="10" t="s">
         <v>74</v>
       </c>
+      <c r="B1" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="C2" s="7" t="n">
+      <c r="A2" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="C3" s="7" t="n">
+      <c r="A3" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C3" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="C4" s="7" t="n">
+      <c r="A4" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C4" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="C5" s="7" t="n">
+      <c r="A5" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="C5" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="C6" s="7" t="n">
+      <c r="A6" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="C6" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="C7" s="7" t="n">
+      <c r="A7" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="C7" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="C8" s="7" t="n">
+      <c r="A8" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="C8" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="C9" s="7" t="n">
+      <c r="A9" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="C9" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="C10" s="7" t="n">
+      <c r="A10" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C10" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="C11" s="7" t="n">
+      <c r="A11" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="C11" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="C12" s="7" t="n">
+      <c r="A12" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="C12" s="9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3749,7 +3788,7 @@
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="B7 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3760,148 +3799,148 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>88</v>
+      <c r="A1" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="7" t="s">
-        <v>17</v>
+      <c r="A2" s="9" t="s">
+        <v>20</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="7" t="s">
-        <v>18</v>
+      <c r="A3" s="9" t="s">
+        <v>21</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="7" t="s">
-        <v>19</v>
+      <c r="A4" s="9" t="s">
+        <v>22</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="7" t="s">
-        <v>20</v>
+      <c r="A5" s="9" t="s">
+        <v>23</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="7" t="s">
-        <v>89</v>
+      <c r="A6" s="9" t="s">
+        <v>92</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="7" t="s">
-        <v>90</v>
+      <c r="A7" s="9" t="s">
+        <v>93</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
+      <c r="A8" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="7" t="s">
-        <v>24</v>
+      <c r="A9" s="9" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="7" t="s">
-        <v>25</v>
+      <c r="A10" s="9" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="7" t="s">
-        <v>26</v>
+      <c r="A11" s="9" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="7" t="s">
-        <v>27</v>
+      <c r="A12" s="9" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="7" t="s">
-        <v>28</v>
+      <c r="A13" s="9" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="7" t="s">
-        <v>29</v>
+      <c r="A14" s="9" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="7" t="s">
-        <v>30</v>
+      <c r="A15" s="9" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="7" t="s">
-        <v>31</v>
+      <c r="A16" s="9" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="7" t="s">
-        <v>32</v>
+      <c r="A17" s="9" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="7" t="s">
-        <v>33</v>
+      <c r="A18" s="9" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="7" t="s">
-        <v>34</v>
+      <c r="A19" s="9" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="7" t="s">
-        <v>35</v>
+      <c r="A20" s="9" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="7" t="s">
-        <v>36</v>
+      <c r="A21" s="9" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="7" t="s">
-        <v>37</v>
+      <c r="A22" s="9" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="7" t="s">
-        <v>38</v>
+      <c r="A23" s="9" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -3923,7 +3962,7 @@
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A17" activeCellId="0" sqref="A17"/>
+      <selection pane="topLeft" activeCell="A17" activeCellId="1" sqref="B7 A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3934,127 +3973,127 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>88</v>
+      <c r="A1" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="7" t="s">
-        <v>17</v>
+      <c r="A2" s="9" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="7" t="s">
-        <v>18</v>
+      <c r="A3" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="7" t="s">
-        <v>19</v>
+      <c r="A4" s="9" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="7" t="s">
-        <v>20</v>
+      <c r="A5" s="9" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="7" t="s">
-        <v>89</v>
+      <c r="A6" s="9" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="7" t="s">
-        <v>90</v>
+      <c r="A7" s="9" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="7" t="s">
-        <v>23</v>
+      <c r="A8" s="9" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="7" t="s">
-        <v>24</v>
+      <c r="A9" s="9" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="7" t="s">
-        <v>25</v>
+      <c r="A10" s="9" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="7" t="s">
-        <v>26</v>
+      <c r="A11" s="9" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="7" t="s">
-        <v>27</v>
+      <c r="A12" s="9" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="7" t="s">
-        <v>28</v>
+      <c r="A13" s="9" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="7" t="s">
-        <v>29</v>
+      <c r="A14" s="9" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="7" t="s">
-        <v>30</v>
+      <c r="A15" s="9" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="7" t="s">
-        <v>31</v>
+      <c r="A16" s="9" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="7" t="s">
-        <v>32</v>
+      <c r="A17" s="9" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="7" t="s">
-        <v>33</v>
+      <c r="A18" s="9" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="7" t="s">
-        <v>34</v>
+      <c r="A19" s="9" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="7" t="s">
-        <v>35</v>
+      <c r="A20" s="9" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="7" t="s">
-        <v>36</v>
+      <c r="A21" s="9" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="7" t="s">
-        <v>37</v>
+      <c r="A22" s="9" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="7" t="s">
-        <v>38</v>
+      <c r="A23" s="9" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -4076,7 +4115,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
+      <selection pane="topLeft" activeCell="C11" activeCellId="1" sqref="B7 C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4089,133 +4128,133 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="6" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B2" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" s="12" t="n">
+        <v>42</v>
+      </c>
+      <c r="B2" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" s="14" t="n">
         <v>-50</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B3" s="12" t="n">
+        <v>43</v>
+      </c>
+      <c r="B3" s="14" t="n">
         <v>-133.737743483803</v>
       </c>
-      <c r="C3" s="12" t="n">
+      <c r="C3" s="14" t="n">
         <v>-115.839227967117</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B4" s="13" t="n">
+        <v>44</v>
+      </c>
+      <c r="B4" s="15" t="n">
         <v>-133.737743483803</v>
       </c>
-      <c r="C4" s="13" t="n">
+      <c r="C4" s="15" t="n">
         <v>-115.839227967117</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B5" s="13" t="n">
+        <v>45</v>
+      </c>
+      <c r="B5" s="15" t="n">
         <v>-13.9969595717307</v>
       </c>
-      <c r="C5" s="13" t="n">
+      <c r="C5" s="15" t="n">
         <v>-3.36434311506105</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B6" s="13" t="n">
+        <v>46</v>
+      </c>
+      <c r="B6" s="15" t="n">
         <v>-2.65360557420809</v>
       </c>
-      <c r="C6" s="13" t="n">
+      <c r="C6" s="15" t="n">
         <v>-9.16597855393775E-007</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B7" s="13" t="n">
+        <v>47</v>
+      </c>
+      <c r="B7" s="15" t="n">
         <v>-4.47107599685342</v>
       </c>
-      <c r="C7" s="13" t="n">
+      <c r="C7" s="15" t="n">
         <v>-2.27373675443232E-013</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B8" s="13" t="n">
+        <v>48</v>
+      </c>
+      <c r="B8" s="15" t="n">
         <v>-57.7519418492923</v>
       </c>
-      <c r="C8" s="13" t="n">
+      <c r="C8" s="15" t="n">
         <v>-44.1664298922258</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B9" s="13" t="n">
+        <v>49</v>
+      </c>
+      <c r="B9" s="15" t="n">
         <v>-18.758533835442</v>
       </c>
-      <c r="C9" s="13" t="n">
+      <c r="C9" s="15" t="n">
         <v>-1.90457512871944E-007</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B10" s="13" t="n">
+        <v>50</v>
+      </c>
+      <c r="B10" s="15" t="n">
         <v>-23.4753886782314</v>
       </c>
-      <c r="C10" s="13" t="n">
+      <c r="C10" s="15" t="n">
         <v>-4.01116348408095</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B11" s="13" t="n">
+        <v>51</v>
+      </c>
+      <c r="B11" s="15" t="n">
         <v>-17.5085881670439</v>
       </c>
-      <c r="C11" s="13" t="n">
+      <c r="C11" s="15" t="n">
         <v>-1.13686837721616E-012</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B12" s="12" t="n">
+        <v>52</v>
+      </c>
+      <c r="B12" s="14" t="n">
         <v>-1000</v>
       </c>
-      <c r="C12" s="12" t="n">
+      <c r="C12" s="14" t="n">
         <v>-1000</v>
       </c>
     </row>
@@ -4238,267 +4277,267 @@
   <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A23" activeCellId="0" sqref="A23"/>
+      <selection pane="topLeft" activeCell="A23" activeCellId="1" sqref="B7 A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="7.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="7.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="7.49"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="8.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="B1" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="C1" s="14" t="s">
-        <v>94</v>
+      <c r="A1" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="15" t="n">
+        <v>21</v>
+      </c>
+      <c r="B2" s="17" t="n">
         <v>2E-005</v>
       </c>
-      <c r="C2" s="15" t="n">
+      <c r="C2" s="17" t="n">
         <v>7.5E-005</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B3" s="15" t="n">
+        <v>36</v>
+      </c>
+      <c r="B3" s="17" t="n">
         <v>0.001</v>
       </c>
-      <c r="C3" s="15" t="n">
+      <c r="C3" s="17" t="n">
         <v>0.001</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="15" t="n">
+        <v>20</v>
+      </c>
+      <c r="B4" s="17" t="n">
         <v>0.001</v>
       </c>
-      <c r="C4" s="15" t="n">
+      <c r="C4" s="17" t="n">
         <v>0.005</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B5" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="C5" s="15" t="n">
+        <v>37</v>
+      </c>
+      <c r="B5" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" s="17" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="15" t="n">
+        <v>23</v>
+      </c>
+      <c r="B6" s="17" t="n">
         <v>5E-005</v>
       </c>
-      <c r="C6" s="15" t="n">
+      <c r="C6" s="17" t="n">
         <v>0.00017</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B7" s="15" t="n">
+        <v>40</v>
+      </c>
+      <c r="B7" s="17" t="n">
         <v>0.001</v>
       </c>
-      <c r="C7" s="15" t="n">
+      <c r="C7" s="17" t="n">
         <v>0.005</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B8" s="15" t="n">
+        <v>41</v>
+      </c>
+      <c r="B8" s="17" t="n">
         <v>0.001</v>
       </c>
-      <c r="C8" s="15" t="n">
+      <c r="C8" s="17" t="n">
         <v>0.005</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B9" s="15" t="n">
+        <v>92</v>
+      </c>
+      <c r="B9" s="17" t="n">
         <v>0.001</v>
       </c>
-      <c r="C9" s="15" t="n">
+      <c r="C9" s="17" t="n">
         <v>0.005</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="15" t="n">
+        <v>22</v>
+      </c>
+      <c r="B10" s="17" t="n">
         <v>3E-006</v>
       </c>
-      <c r="C10" s="15" t="n">
+      <c r="C10" s="17" t="n">
         <v>4E-005</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>90</v>
-      </c>
-      <c r="B11" s="16" t="n">
+        <v>93</v>
+      </c>
+      <c r="B11" s="18" t="n">
         <v>0.001</v>
       </c>
-      <c r="C11" s="16" t="n">
+      <c r="C11" s="18" t="n">
         <v>0.005</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" s="16" t="n">
+        <v>26</v>
+      </c>
+      <c r="B12" s="18" t="n">
         <v>1E-006</v>
       </c>
-      <c r="C12" s="16" t="n">
+      <c r="C12" s="18" t="n">
         <v>0.0001</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="16" t="n">
+        <v>27</v>
+      </c>
+      <c r="B13" s="18" t="n">
         <v>0.0012</v>
       </c>
-      <c r="C13" s="16" t="n">
+      <c r="C13" s="18" t="n">
         <v>0.0018</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14" s="16" t="n">
+        <v>28</v>
+      </c>
+      <c r="B14" s="18" t="n">
         <v>3E-006</v>
       </c>
-      <c r="C14" s="16" t="n">
+      <c r="C14" s="18" t="n">
         <v>6E-006</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="B15" s="16" t="n">
+        <v>35</v>
+      </c>
+      <c r="B15" s="18" t="n">
         <v>4E-007</v>
       </c>
-      <c r="C15" s="16" t="n">
+      <c r="C15" s="18" t="n">
         <v>5E-005</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="B16" s="16" t="n">
+        <v>29</v>
+      </c>
+      <c r="B16" s="18" t="n">
         <v>1E-006</v>
       </c>
-      <c r="C16" s="16" t="n">
+      <c r="C16" s="18" t="n">
         <v>1.6E-005</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="B17" s="16" t="n">
+        <v>30</v>
+      </c>
+      <c r="B17" s="18" t="n">
         <v>4E-006</v>
       </c>
-      <c r="C17" s="16" t="n">
+      <c r="C17" s="18" t="n">
         <v>8E-006</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="B18" s="16" t="n">
+        <v>31</v>
+      </c>
+      <c r="B18" s="18" t="n">
         <v>0.00022</v>
       </c>
-      <c r="C18" s="16" t="n">
+      <c r="C18" s="18" t="n">
         <v>0.0073</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="B19" s="16" t="n">
+        <v>32</v>
+      </c>
+      <c r="B19" s="18" t="n">
         <v>1E-005</v>
       </c>
-      <c r="C19" s="16" t="n">
+      <c r="C19" s="18" t="n">
         <v>0.00025</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="B20" s="16" t="n">
+        <v>33</v>
+      </c>
+      <c r="B20" s="18" t="n">
         <v>0.00014</v>
       </c>
-      <c r="C20" s="16" t="n">
+      <c r="C20" s="18" t="n">
         <v>0.0018</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="B21" s="16" t="n">
+        <v>34</v>
+      </c>
+      <c r="B21" s="18" t="n">
         <v>1E-006</v>
       </c>
-      <c r="C21" s="16" t="n">
+      <c r="C21" s="18" t="n">
         <v>0.0001</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="B22" s="16" t="n">
+        <v>39</v>
+      </c>
+      <c r="B22" s="18" t="n">
         <v>0.0002</v>
       </c>
-      <c r="C22" s="16" t="n">
+      <c r="C22" s="18" t="n">
         <v>0.0003</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="B23" s="16" t="n">
+        <v>38</v>
+      </c>
+      <c r="B23" s="18" t="n">
         <v>0.0002</v>
       </c>
-      <c r="C23" s="16" t="n">
+      <c r="C23" s="18" t="n">
         <v>0.0003</v>
       </c>
     </row>
@@ -4521,13 +4560,13 @@
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
+      <selection pane="topLeft" activeCell="B12" activeCellId="1" sqref="B7 B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.48"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="8.16"/>
@@ -4538,394 +4577,394 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="10" style="0" width="8.67"/>
   </cols>
   <sheetData>
-    <row r="1" s="18" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="D1" s="17" t="s">
-        <v>97</v>
-      </c>
-      <c r="E1" s="17" t="s">
+    <row r="1" s="20" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="C1" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="D1" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="E1" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="F1" s="19" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="2" s="18" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G1" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="H1" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="I1" s="19" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2" s="20" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B2" s="19" t="n">
+        <v>42</v>
+      </c>
+      <c r="B2" s="21" t="n">
         <v>0.1382</v>
       </c>
-      <c r="C2" s="20" t="n">
+      <c r="C2" s="22" t="n">
         <f aca="false">0.15*B2</f>
         <v>0.02073</v>
       </c>
-      <c r="D2" s="19" t="n">
+      <c r="D2" s="21" t="n">
         <v>0.1325</v>
       </c>
-      <c r="E2" s="20" t="n">
+      <c r="E2" s="22" t="n">
         <f aca="false">0.15*D2</f>
         <v>0.019875</v>
       </c>
-      <c r="F2" s="19" t="n">
+      <c r="F2" s="21" t="n">
         <v>0.1347</v>
       </c>
-      <c r="G2" s="20" t="n">
+      <c r="G2" s="22" t="n">
         <f aca="false">0.15*F2</f>
         <v>0.020205</v>
       </c>
-      <c r="H2" s="19" t="n">
+      <c r="H2" s="21" t="n">
         <v>0.1075</v>
       </c>
-      <c r="I2" s="20" t="n">
+      <c r="I2" s="22" t="n">
         <f aca="false">0.15*H2</f>
         <v>0.016125</v>
       </c>
     </row>
-    <row r="3" s="18" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" s="20" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B3" s="19" t="n">
+        <v>43</v>
+      </c>
+      <c r="B3" s="21" t="n">
         <v>0.8148</v>
       </c>
-      <c r="C3" s="20" t="n">
+      <c r="C3" s="22" t="n">
         <f aca="false">0.15*B3</f>
         <v>0.12222</v>
       </c>
-      <c r="D3" s="19" t="n">
+      <c r="D3" s="21" t="n">
         <v>0.8687</v>
       </c>
-      <c r="E3" s="20" t="n">
+      <c r="E3" s="22" t="n">
         <f aca="false">0.15*D3</f>
         <v>0.130305</v>
       </c>
-      <c r="F3" s="19" t="n">
+      <c r="F3" s="21" t="n">
         <v>0.856</v>
       </c>
-      <c r="G3" s="20" t="n">
+      <c r="G3" s="22" t="n">
         <f aca="false">0.15*F3</f>
         <v>0.1284</v>
       </c>
-      <c r="H3" s="19" t="n">
+      <c r="H3" s="21" t="n">
         <v>0.7304</v>
       </c>
-      <c r="I3" s="20" t="n">
+      <c r="I3" s="22" t="n">
         <f aca="false">0.15*H3</f>
         <v>0.10956</v>
       </c>
     </row>
-    <row r="4" s="18" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" s="20" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B4" s="19" t="n">
+        <v>44</v>
+      </c>
+      <c r="B4" s="21" t="n">
         <v>0.2491</v>
       </c>
-      <c r="C4" s="20" t="n">
+      <c r="C4" s="22" t="n">
         <f aca="false">0.15*B4</f>
         <v>0.037365</v>
       </c>
-      <c r="D4" s="19" t="n">
+      <c r="D4" s="21" t="n">
         <v>0.158</v>
       </c>
-      <c r="E4" s="20" t="n">
+      <c r="E4" s="22" t="n">
         <f aca="false">0.15*D4</f>
         <v>0.0237</v>
       </c>
-      <c r="F4" s="19" t="n">
+      <c r="F4" s="21" t="n">
         <v>0.1836</v>
       </c>
-      <c r="G4" s="20" t="n">
+      <c r="G4" s="22" t="n">
         <f aca="false">0.15*F4</f>
         <v>0.02754</v>
       </c>
-      <c r="H4" s="19" t="n">
+      <c r="H4" s="21" t="n">
         <v>0.0578</v>
       </c>
-      <c r="I4" s="20" t="n">
+      <c r="I4" s="22" t="n">
         <f aca="false">0.15*H4</f>
         <v>0.00867</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B5" s="19" t="n">
+        <v>45</v>
+      </c>
+      <c r="B5" s="21" t="n">
         <v>1.0164</v>
       </c>
-      <c r="C5" s="20" t="n">
+      <c r="C5" s="22" t="n">
         <f aca="false">0.15*B5</f>
         <v>0.15246</v>
       </c>
-      <c r="D5" s="19" t="n">
+      <c r="D5" s="21" t="n">
         <v>1.0037</v>
       </c>
-      <c r="E5" s="20" t="n">
+      <c r="E5" s="22" t="n">
         <f aca="false">0.15*D5</f>
         <v>0.150555</v>
       </c>
-      <c r="F5" s="19" t="n">
+      <c r="F5" s="21" t="n">
         <v>0.9685</v>
       </c>
-      <c r="G5" s="20" t="n">
+      <c r="G5" s="22" t="n">
         <f aca="false">0.15*F5</f>
         <v>0.145275</v>
       </c>
-      <c r="H5" s="19" t="n">
+      <c r="H5" s="21" t="n">
         <v>0.785</v>
       </c>
-      <c r="I5" s="20" t="n">
+      <c r="I5" s="22" t="n">
         <f aca="false">0.15*H5</f>
         <v>0.11775</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B6" s="19" t="n">
+        <v>46</v>
+      </c>
+      <c r="B6" s="21" t="n">
         <v>0.0475</v>
       </c>
-      <c r="C6" s="20" t="n">
+      <c r="C6" s="22" t="n">
         <f aca="false">0.15*B6</f>
         <v>0.007125</v>
       </c>
-      <c r="D6" s="19" t="n">
+      <c r="D6" s="21" t="n">
         <v>0.023</v>
       </c>
-      <c r="E6" s="20" t="n">
+      <c r="E6" s="22" t="n">
         <f aca="false">0.15*D6</f>
         <v>0.00345</v>
       </c>
-      <c r="F6" s="19" t="n">
+      <c r="F6" s="21" t="n">
         <v>0.071</v>
       </c>
-      <c r="G6" s="20" t="n">
+      <c r="G6" s="22" t="n">
         <f aca="false">0.15*F6</f>
         <v>0.01065</v>
       </c>
-      <c r="H6" s="19" t="n">
+      <c r="H6" s="21" t="n">
         <v>0.0031</v>
       </c>
-      <c r="I6" s="20" t="n">
+      <c r="I6" s="22" t="n">
         <f aca="false">0.15*H6</f>
         <v>0.000465</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B7" s="19" t="n">
+        <v>47</v>
+      </c>
+      <c r="B7" s="21" t="n">
         <v>1.0639</v>
       </c>
-      <c r="C7" s="20" t="n">
+      <c r="C7" s="22" t="n">
         <f aca="false">0.15*B7</f>
         <v>0.159585</v>
       </c>
-      <c r="D7" s="19" t="n">
+      <c r="D7" s="21" t="n">
         <v>1.0267</v>
       </c>
-      <c r="E7" s="20" t="n">
+      <c r="E7" s="22" t="n">
         <f aca="false">0.15*D7</f>
         <v>0.154005</v>
       </c>
-      <c r="F7" s="19" t="n">
+      <c r="F7" s="21" t="n">
         <v>1.0396</v>
       </c>
-      <c r="G7" s="20" t="n">
+      <c r="G7" s="22" t="n">
         <f aca="false">0.15*F7</f>
         <v>0.15594</v>
       </c>
-      <c r="H7" s="19" t="n">
+      <c r="H7" s="21" t="n">
         <v>0.7881</v>
       </c>
-      <c r="I7" s="20" t="n">
+      <c r="I7" s="22" t="n">
         <f aca="false">0.15*H7</f>
         <v>0.118215</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B8" s="19" t="n">
+        <v>48</v>
+      </c>
+      <c r="B8" s="21" t="n">
         <v>0.0852</v>
       </c>
-      <c r="C8" s="20" t="n">
+      <c r="C8" s="22" t="n">
         <f aca="false">0.15*B8</f>
         <v>0.01278</v>
       </c>
-      <c r="D8" s="19" t="n">
+      <c r="D8" s="21" t="n">
         <v>0.0878</v>
       </c>
-      <c r="E8" s="20" t="n">
+      <c r="E8" s="22" t="n">
         <f aca="false">0.15*D8</f>
         <v>0.01317</v>
       </c>
-      <c r="F8" s="19" t="n">
+      <c r="F8" s="21" t="n">
         <v>0.021</v>
       </c>
-      <c r="G8" s="20" t="n">
+      <c r="G8" s="22" t="n">
         <f aca="false">0.15*F8</f>
         <v>0.00315</v>
       </c>
-      <c r="H8" s="19" t="n">
+      <c r="H8" s="21" t="n">
         <v>0.1343</v>
       </c>
-      <c r="I8" s="20" t="n">
+      <c r="I8" s="22" t="n">
         <f aca="false">0.15*H8</f>
         <v>0.020145</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B9" s="19" t="n">
+        <v>49</v>
+      </c>
+      <c r="B9" s="21" t="n">
         <v>0.3556</v>
       </c>
-      <c r="C9" s="20" t="n">
+      <c r="C9" s="22" t="n">
         <f aca="false">0.15*B9</f>
         <v>0.05334</v>
       </c>
-      <c r="D9" s="19" t="n">
+      <c r="D9" s="21" t="n">
         <v>0.3102</v>
       </c>
-      <c r="E9" s="20" t="n">
+      <c r="E9" s="22" t="n">
         <f aca="false">0.15*D9</f>
         <v>0.04653</v>
       </c>
-      <c r="F9" s="19" t="n">
+      <c r="F9" s="21" t="n">
         <v>0.392</v>
       </c>
-      <c r="G9" s="20" t="n">
+      <c r="G9" s="22" t="n">
         <f aca="false">0.15*F9</f>
         <v>0.0588</v>
       </c>
-      <c r="H9" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" s="20" t="n">
+      <c r="H9" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" s="22" t="n">
         <f aca="false">0.15*H9</f>
         <v>0</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B10" s="19" t="n">
+        <v>50</v>
+      </c>
+      <c r="B10" s="21" t="n">
         <v>0.6231</v>
       </c>
-      <c r="C10" s="20" t="n">
+      <c r="C10" s="22" t="n">
         <f aca="false">0.15*B10</f>
         <v>0.093465</v>
       </c>
-      <c r="D10" s="19" t="n">
+      <c r="D10" s="21" t="n">
         <v>0.6288</v>
       </c>
-      <c r="E10" s="20" t="n">
+      <c r="E10" s="22" t="n">
         <f aca="false">0.15*D10</f>
         <v>0.09432</v>
       </c>
-      <c r="F10" s="19" t="n">
+      <c r="F10" s="21" t="n">
         <v>0.6266</v>
       </c>
-      <c r="G10" s="20" t="n">
+      <c r="G10" s="22" t="n">
         <f aca="false">0.15*F10</f>
         <v>0.09399</v>
       </c>
-      <c r="H10" s="19" t="n">
+      <c r="H10" s="21" t="n">
         <v>0.6538</v>
       </c>
-      <c r="I10" s="20" t="n">
+      <c r="I10" s="22" t="n">
         <f aca="false">0.15*H10</f>
         <v>0.09807</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B11" s="19" t="n">
+        <v>51</v>
+      </c>
+      <c r="B11" s="21" t="n">
         <v>0.0852</v>
       </c>
-      <c r="C11" s="20" t="n">
+      <c r="C11" s="22" t="n">
         <f aca="false">0.15*B11</f>
         <v>0.01278</v>
       </c>
-      <c r="D11" s="19" t="n">
+      <c r="D11" s="21" t="n">
         <v>0.0878</v>
       </c>
-      <c r="E11" s="20" t="n">
+      <c r="E11" s="22" t="n">
         <f aca="false">0.15*D11</f>
         <v>0.01317</v>
       </c>
-      <c r="F11" s="19" t="n">
+      <c r="F11" s="21" t="n">
         <v>0.021</v>
       </c>
-      <c r="G11" s="20" t="n">
+      <c r="G11" s="22" t="n">
         <f aca="false">0.15*F11</f>
         <v>0.00315</v>
       </c>
-      <c r="H11" s="19" t="n">
+      <c r="H11" s="21" t="n">
         <v>0.1343</v>
       </c>
-      <c r="I11" s="20" t="n">
+      <c r="I11" s="22" t="n">
         <f aca="false">0.15*H11</f>
         <v>0.020145</v>
       </c>
     </row>
-    <row r="12" s="18" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" s="20" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B12" s="19" t="n">
+        <v>52</v>
+      </c>
+      <c r="B12" s="21" t="n">
         <v>0.7613</v>
       </c>
-      <c r="C12" s="20" t="n">
+      <c r="C12" s="22" t="n">
         <f aca="false">0.15*B12</f>
         <v>0.114195</v>
       </c>
-      <c r="D12" s="19" t="n">
+      <c r="D12" s="21" t="n">
         <v>0.7613</v>
       </c>
-      <c r="E12" s="20" t="n">
+      <c r="E12" s="22" t="n">
         <f aca="false">0.15*D12</f>
         <v>0.114195</v>
       </c>
-      <c r="F12" s="19" t="n">
+      <c r="F12" s="21" t="n">
         <v>0.7613</v>
       </c>
-      <c r="G12" s="20" t="n">
+      <c r="G12" s="22" t="n">
         <f aca="false">0.15*F12</f>
         <v>0.114195</v>
       </c>
-      <c r="H12" s="19" t="n">
+      <c r="H12" s="21" t="n">
         <v>0.7613</v>
       </c>
-      <c r="I12" s="20" t="n">
+      <c r="I12" s="22" t="n">
         <f aca="false">0.15*H12</f>
         <v>0.114195</v>
       </c>

--- a/io/input/methionine_cycle_fmincon.xlsx
+++ b/io/input/methionine_cycle_fmincon.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="1" state="visible" r:id="rId2"/>
@@ -507,7 +507,7 @@
     <numFmt numFmtId="168" formatCode="0.00"/>
     <numFmt numFmtId="169" formatCode="0.000"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -537,12 +537,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
@@ -621,7 +615,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -654,10 +648,6 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -666,7 +656,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -698,7 +688,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -745,7 +735,7 @@
   </sheetPr>
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -806,7 +796,7 @@
       <c r="A7" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="7" t="s">
         <v>10</v>
       </c>
     </row>
@@ -885,7 +875,7 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H9" activeCellId="1" sqref="B7 H9"/>
+      <selection pane="topLeft" activeCell="H9" activeCellId="0" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -900,39 +890,39 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="5" width="7.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="5" width="10.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="5" width="7.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1019" min="11" style="9" width="8.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1020" style="9" width="8.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1019" min="11" style="8" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1020" style="8" width="8.83"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="H1" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="I1" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="J1" s="19" t="s">
+      <c r="J1" s="18" t="s">
         <v>112</v>
       </c>
     </row>
@@ -940,31 +930,31 @@
       <c r="A2" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="11" t="n">
+      <c r="B2" s="10" t="n">
         <v>0.99</v>
       </c>
-      <c r="C2" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" s="11" t="n">
+      <c r="C2" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" s="10" t="n">
         <v>1.01</v>
       </c>
-      <c r="E2" s="11" t="n">
+      <c r="E2" s="10" t="n">
         <v>0.99</v>
       </c>
-      <c r="F2" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="G2" s="11" t="n">
+      <c r="F2" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2" s="10" t="n">
         <v>1.01</v>
       </c>
-      <c r="H2" s="11" t="n">
+      <c r="H2" s="10" t="n">
         <v>0.99</v>
       </c>
-      <c r="I2" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" s="11" t="n">
+      <c r="I2" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J2" s="10" t="n">
         <v>1.01</v>
       </c>
     </row>
@@ -972,31 +962,31 @@
       <c r="A3" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="11" t="n">
+      <c r="B3" s="10" t="n">
         <v>0.99</v>
       </c>
-      <c r="C3" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" s="11" t="n">
+      <c r="C3" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" s="10" t="n">
         <v>1.01</v>
       </c>
-      <c r="E3" s="11" t="n">
+      <c r="E3" s="10" t="n">
         <v>0.99</v>
       </c>
-      <c r="F3" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="G3" s="11" t="n">
+      <c r="F3" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" s="10" t="n">
         <v>1.01</v>
       </c>
-      <c r="H3" s="11" t="n">
+      <c r="H3" s="10" t="n">
         <v>0.99</v>
       </c>
-      <c r="I3" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" s="11" t="n">
+      <c r="I3" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" s="10" t="n">
         <v>1.01</v>
       </c>
     </row>
@@ -1004,31 +994,31 @@
       <c r="A4" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="11" t="n">
+      <c r="B4" s="10" t="n">
         <v>0.99</v>
       </c>
-      <c r="C4" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" s="11" t="n">
+      <c r="C4" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" s="10" t="n">
         <v>1.01</v>
       </c>
-      <c r="E4" s="11" t="n">
+      <c r="E4" s="10" t="n">
         <v>0.99</v>
       </c>
-      <c r="F4" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="G4" s="11" t="n">
+      <c r="F4" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" s="10" t="n">
         <v>1.01</v>
       </c>
-      <c r="H4" s="11" t="n">
+      <c r="H4" s="10" t="n">
         <v>0.99</v>
       </c>
-      <c r="I4" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="J4" s="11" t="n">
+      <c r="I4" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" s="10" t="n">
         <v>1.01</v>
       </c>
     </row>
@@ -1036,31 +1026,31 @@
       <c r="A5" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B5" s="11" t="n">
+      <c r="B5" s="10" t="n">
         <v>0.99</v>
       </c>
-      <c r="C5" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" s="11" t="n">
+      <c r="C5" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" s="10" t="n">
         <v>1.01</v>
       </c>
-      <c r="E5" s="11" t="n">
+      <c r="E5" s="10" t="n">
         <v>0.99</v>
       </c>
-      <c r="F5" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="G5" s="11" t="n">
+      <c r="F5" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" s="10" t="n">
         <v>1.01</v>
       </c>
-      <c r="H5" s="11" t="n">
+      <c r="H5" s="10" t="n">
         <v>0.99</v>
       </c>
-      <c r="I5" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="J5" s="11" t="n">
+      <c r="I5" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" s="10" t="n">
         <v>1.01</v>
       </c>
     </row>
@@ -1068,31 +1058,31 @@
       <c r="A6" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B6" s="11" t="n">
+      <c r="B6" s="10" t="n">
         <v>0.99</v>
       </c>
-      <c r="C6" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" s="11" t="n">
+      <c r="C6" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" s="10" t="n">
         <v>1.01</v>
       </c>
-      <c r="E6" s="11" t="n">
+      <c r="E6" s="10" t="n">
         <v>0.99</v>
       </c>
-      <c r="F6" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="G6" s="11" t="n">
+      <c r="F6" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" s="10" t="n">
         <v>1.01</v>
       </c>
-      <c r="H6" s="11" t="n">
+      <c r="H6" s="10" t="n">
         <v>0.99</v>
       </c>
-      <c r="I6" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="J6" s="11" t="n">
+      <c r="I6" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" s="10" t="n">
         <v>1.01</v>
       </c>
     </row>
@@ -1100,31 +1090,31 @@
       <c r="A7" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B7" s="11" t="n">
+      <c r="B7" s="10" t="n">
         <v>0.99</v>
       </c>
-      <c r="C7" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" s="11" t="n">
+      <c r="C7" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" s="10" t="n">
         <v>1.01</v>
       </c>
-      <c r="E7" s="11" t="n">
+      <c r="E7" s="10" t="n">
         <v>0.99</v>
       </c>
-      <c r="F7" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="G7" s="11" t="n">
+      <c r="F7" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" s="10" t="n">
         <v>1.01</v>
       </c>
-      <c r="H7" s="11" t="n">
+      <c r="H7" s="10" t="n">
         <v>0.99</v>
       </c>
-      <c r="I7" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="J7" s="11" t="n">
+      <c r="I7" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" s="10" t="n">
         <v>1.01</v>
       </c>
     </row>
@@ -1132,31 +1122,31 @@
       <c r="A8" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B8" s="11" t="n">
+      <c r="B8" s="10" t="n">
         <v>0.99</v>
       </c>
-      <c r="C8" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="D8" s="11" t="n">
+      <c r="C8" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" s="10" t="n">
         <v>1.01</v>
       </c>
-      <c r="E8" s="11" t="n">
+      <c r="E8" s="10" t="n">
         <v>0.99</v>
       </c>
-      <c r="F8" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="G8" s="11" t="n">
+      <c r="F8" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" s="10" t="n">
         <v>1.01</v>
       </c>
-      <c r="H8" s="11" t="n">
+      <c r="H8" s="10" t="n">
         <v>0.99</v>
       </c>
-      <c r="I8" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="J8" s="11" t="n">
+      <c r="I8" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" s="10" t="n">
         <v>1.01</v>
       </c>
     </row>
@@ -1164,31 +1154,31 @@
       <c r="A9" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B9" s="11" t="n">
+      <c r="B9" s="10" t="n">
         <v>0.99</v>
       </c>
-      <c r="C9" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="D9" s="11" t="n">
+      <c r="C9" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" s="10" t="n">
         <v>1.01</v>
       </c>
-      <c r="E9" s="11" t="n">
+      <c r="E9" s="10" t="n">
         <v>0.99</v>
       </c>
-      <c r="F9" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="G9" s="11" t="n">
+      <c r="F9" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G9" s="10" t="n">
         <v>1.01</v>
       </c>
-      <c r="H9" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" s="11" t="n">
+      <c r="H9" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" s="10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1196,31 +1186,31 @@
       <c r="A10" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B10" s="11" t="n">
+      <c r="B10" s="10" t="n">
         <v>1.5</v>
       </c>
-      <c r="C10" s="11" t="n">
+      <c r="C10" s="10" t="n">
         <v>1.5</v>
       </c>
-      <c r="D10" s="11" t="n">
+      <c r="D10" s="10" t="n">
         <v>1.5</v>
       </c>
-      <c r="E10" s="11" t="n">
+      <c r="E10" s="10" t="n">
         <v>0.99</v>
       </c>
-      <c r="F10" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="G10" s="11" t="n">
+      <c r="F10" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G10" s="10" t="n">
         <v>1.01</v>
       </c>
-      <c r="H10" s="11" t="n">
+      <c r="H10" s="10" t="n">
         <v>0.99</v>
       </c>
-      <c r="I10" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="J10" s="11" t="n">
+      <c r="I10" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" s="10" t="n">
         <v>1.01</v>
       </c>
     </row>
@@ -1228,31 +1218,31 @@
       <c r="A11" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B11" s="11" t="n">
+      <c r="B11" s="10" t="n">
         <v>0.99</v>
       </c>
-      <c r="C11" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="D11" s="11" t="n">
+      <c r="C11" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" s="10" t="n">
         <v>1.01</v>
       </c>
-      <c r="E11" s="11" t="n">
+      <c r="E11" s="10" t="n">
         <v>0.2</v>
       </c>
-      <c r="F11" s="11" t="n">
+      <c r="F11" s="10" t="n">
         <v>0.2</v>
       </c>
-      <c r="G11" s="11" t="n">
+      <c r="G11" s="10" t="n">
         <v>0.2</v>
       </c>
-      <c r="H11" s="11" t="n">
+      <c r="H11" s="10" t="n">
         <v>0.99</v>
       </c>
-      <c r="I11" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="J11" s="11" t="n">
+      <c r="I11" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" s="10" t="n">
         <v>1.01</v>
       </c>
     </row>
@@ -1260,31 +1250,31 @@
       <c r="A12" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B12" s="11" t="n">
+      <c r="B12" s="10" t="n">
         <v>0.99</v>
       </c>
-      <c r="C12" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="D12" s="11" t="n">
+      <c r="C12" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" s="10" t="n">
         <v>1.01</v>
       </c>
-      <c r="E12" s="11" t="n">
+      <c r="E12" s="10" t="n">
         <v>0.99</v>
       </c>
-      <c r="F12" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="G12" s="11" t="n">
+      <c r="F12" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G12" s="10" t="n">
         <v>1.01</v>
       </c>
-      <c r="H12" s="11" t="n">
+      <c r="H12" s="10" t="n">
         <v>0.99</v>
       </c>
-      <c r="I12" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="J12" s="11" t="n">
+      <c r="I12" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" s="10" t="n">
         <v>1.01</v>
       </c>
     </row>
@@ -1307,7 +1297,7 @@
   <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L32" activeCellId="1" sqref="B7 L32"/>
+      <selection pane="topLeft" activeCell="L32" activeCellId="0" sqref="L32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1324,738 +1314,738 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="H1" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="I1" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="J1" s="19" t="s">
+      <c r="J1" s="18" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="F2" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="G2" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="H2" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" s="23" t="n">
+      <c r="B2" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="J2" s="22" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="23" t="n">
+      <c r="B3" s="22" t="n">
         <v>0.001</v>
       </c>
-      <c r="C3" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" s="23" t="n">
+      <c r="C3" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" s="22" t="n">
         <v>10</v>
       </c>
-      <c r="E3" s="23" t="n">
+      <c r="E3" s="22" t="n">
         <v>0.001</v>
       </c>
-      <c r="F3" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="G3" s="23" t="n">
+      <c r="F3" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" s="22" t="n">
         <v>10</v>
       </c>
-      <c r="H3" s="23" t="n">
+      <c r="H3" s="22" t="n">
         <v>0.001</v>
       </c>
-      <c r="I3" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" s="23" t="n">
+      <c r="I3" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" s="22" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="23" t="n">
+      <c r="B4" s="22" t="n">
         <v>0.001</v>
       </c>
-      <c r="C4" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" s="23" t="n">
+      <c r="C4" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" s="22" t="n">
         <v>10</v>
       </c>
-      <c r="E4" s="23" t="n">
+      <c r="E4" s="22" t="n">
         <v>0.001</v>
       </c>
-      <c r="F4" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="G4" s="23" t="n">
+      <c r="F4" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" s="22" t="n">
         <v>10</v>
       </c>
-      <c r="H4" s="23" t="n">
+      <c r="H4" s="22" t="n">
         <v>0.001</v>
       </c>
-      <c r="I4" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="J4" s="23" t="n">
+      <c r="I4" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" s="22" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="23" t="n">
+      <c r="B5" s="22" t="n">
         <v>0.001</v>
       </c>
-      <c r="C5" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" s="23" t="n">
+      <c r="C5" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" s="22" t="n">
         <v>10</v>
       </c>
-      <c r="E5" s="23" t="n">
+      <c r="E5" s="22" t="n">
         <v>0.001</v>
       </c>
-      <c r="F5" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="G5" s="23" t="n">
+      <c r="F5" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" s="22" t="n">
         <v>10</v>
       </c>
-      <c r="H5" s="23" t="n">
+      <c r="H5" s="22" t="n">
         <v>0.001</v>
       </c>
-      <c r="I5" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="J5" s="23" t="n">
+      <c r="I5" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" s="22" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="C6" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="E6" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="F6" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="G6" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="H6" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="J6" s="23" t="n">
+      <c r="B6" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" s="22" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="E7" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="F7" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="G7" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="H7" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="J7" s="23" t="n">
+      <c r="B7" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" s="22" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="C8" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="D8" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="E8" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="F8" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="G8" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="H8" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="J8" s="23" t="n">
+      <c r="B8" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="H8" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" s="22" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="C9" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="D9" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="E9" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="F9" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="G9" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="H9" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="J9" s="23" t="n">
+      <c r="B9" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="G9" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="H9" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" s="22" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="23" t="n">
+      <c r="B10" s="22" t="n">
         <v>0.001</v>
       </c>
-      <c r="C10" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="D10" s="23" t="n">
+      <c r="C10" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" s="22" t="n">
         <v>10</v>
       </c>
-      <c r="E10" s="23" t="n">
+      <c r="E10" s="22" t="n">
         <v>0.001</v>
       </c>
-      <c r="F10" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="G10" s="23" t="n">
+      <c r="F10" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="G10" s="22" t="n">
         <v>10</v>
       </c>
-      <c r="H10" s="23" t="n">
+      <c r="H10" s="22" t="n">
         <v>0.001</v>
       </c>
-      <c r="I10" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="J10" s="23" t="n">
+      <c r="I10" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" s="22" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="23" t="n">
+      <c r="B11" s="22" t="n">
         <v>0.001</v>
       </c>
-      <c r="C11" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="D11" s="23" t="n">
+      <c r="C11" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" s="22" t="n">
         <v>10</v>
       </c>
-      <c r="E11" s="23" t="n">
+      <c r="E11" s="22" t="n">
         <v>0.001</v>
       </c>
-      <c r="F11" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="G11" s="23" t="n">
+      <c r="F11" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="G11" s="22" t="n">
         <v>10</v>
       </c>
-      <c r="H11" s="23" t="n">
+      <c r="H11" s="22" t="n">
         <v>0.001</v>
       </c>
-      <c r="I11" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="J11" s="23" t="n">
+      <c r="I11" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" s="22" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="C12" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="D12" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="E12" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="F12" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="G12" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="H12" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="J12" s="23" t="n">
+      <c r="B12" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="F12" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="G12" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="H12" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="I12" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" s="22" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="C13" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="D13" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="E13" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="F13" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="G13" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="H13" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="J13" s="23" t="n">
+      <c r="B13" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="F13" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="G13" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="H13" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="I13" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="J13" s="22" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="C14" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="D14" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="E14" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="F14" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="G14" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="H14" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="J14" s="23" t="n">
+      <c r="B14" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="E14" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="F14" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="G14" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="H14" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="J14" s="22" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B15" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="C15" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="D15" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="E15" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="F15" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="G15" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="H15" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="J15" s="23" t="n">
+      <c r="B15" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="E15" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="F15" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="G15" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="H15" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="I15" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="J15" s="22" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="B16" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="C16" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="D16" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="E16" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="F16" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="G16" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="H16" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="J16" s="23" t="n">
+      <c r="B16" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="F16" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="G16" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="H16" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="I16" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="J16" s="22" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="C17" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="D17" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="E17" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="F17" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="G17" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="H17" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="J17" s="23" t="n">
+      <c r="B17" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="C17" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="D17" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="E17" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="F17" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="G17" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="H17" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="I17" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="J17" s="22" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="9" t="s">
+      <c r="A18" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B18" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="C18" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="D18" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="E18" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="F18" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="G18" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="H18" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="J18" s="23" t="n">
+      <c r="B18" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="C18" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="D18" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="E18" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="F18" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="G18" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="H18" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="I18" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="J18" s="22" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="9" t="s">
+      <c r="A19" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B19" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="C19" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="D19" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="E19" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="F19" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="G19" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="H19" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="J19" s="23" t="n">
+      <c r="B19" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="C19" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="D19" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="E19" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="F19" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="G19" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="H19" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="I19" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="J19" s="22" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="9" t="s">
+      <c r="A20" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="C20" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="D20" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="E20" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="F20" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="G20" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="H20" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="J20" s="23" t="n">
+      <c r="B20" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="C20" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="D20" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="E20" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="F20" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="G20" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="H20" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="I20" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="J20" s="22" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="9" t="s">
+      <c r="A21" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B21" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="C21" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="D21" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="E21" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="F21" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="G21" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="H21" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="J21" s="23" t="n">
+      <c r="B21" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="C21" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="D21" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="E21" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="F21" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="G21" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="H21" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="I21" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="J21" s="22" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="9" t="s">
+      <c r="A22" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="B22" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="C22" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="D22" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="E22" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="F22" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="G22" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="H22" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="J22" s="23" t="n">
+      <c r="B22" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="C22" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="D22" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="E22" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="F22" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="G22" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="H22" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="I22" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="J22" s="22" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="9" t="s">
+      <c r="A23" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B23" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="C23" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="D23" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="E23" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="F23" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="G23" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="H23" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="J23" s="23" t="n">
+      <c r="B23" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="C23" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="D23" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="E23" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="F23" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="G23" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="H23" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="I23" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="J23" s="22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2078,61 +2068,61 @@
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B12" activeCellId="1" sqref="B7 B12"/>
+      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="9" width="9.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="9" width="33.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="9" width="13.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="9" width="11.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="9" width="10.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="9" width="8.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="9" width="8.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="9" width="14.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="9" width="14.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="9" width="8"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="9" width="7.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="9" width="80.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="8" width="9.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="8" width="33.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="8" width="13.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="8" width="11.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="8" width="10.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="8" width="8.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="8" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="8" width="14.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="8" width="14.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="8" width="8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="8" width="7.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="8" width="80.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="13" style="0" width="8.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="J1" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="K1" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="L1" s="12" t="s">
+      <c r="L1" s="11" t="s">
         <v>123</v>
       </c>
     </row>
@@ -2171,7 +2161,7 @@
       <c r="B3" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="23" t="s">
         <v>127</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -2188,24 +2178,24 @@
       <c r="K3" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="L3" s="24" t="s">
+      <c r="L3" s="23" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="8" t="s">
         <v>44</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="C4" s="23" t="s">
         <v>127</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="I4" s="9" t="s">
+      <c r="I4" s="8" t="s">
         <v>23</v>
       </c>
       <c r="J4" s="1" t="n">
@@ -2214,24 +2204,24 @@
       <c r="K4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="L4" s="25" t="s">
+      <c r="L4" s="24" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="C5" s="25" t="s">
+      <c r="C5" s="24" t="s">
         <v>130</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="8" t="s">
         <v>29</v>
       </c>
       <c r="J5" s="1" t="n">
@@ -2240,21 +2230,21 @@
       <c r="K5" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="L5" s="25" t="s">
+      <c r="L5" s="24" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="C6" s="25" t="s">
+      <c r="C6" s="24" t="s">
         <v>134</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="8" t="s">
         <v>135</v>
       </c>
       <c r="J6" s="1" t="n">
@@ -2263,21 +2253,21 @@
       <c r="K6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="L6" s="25" t="s">
+      <c r="L6" s="24" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="C7" s="25" t="s">
+      <c r="C7" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="8" t="s">
         <v>138</v>
       </c>
       <c r="J7" s="1" t="n">
@@ -2286,21 +2276,21 @@
       <c r="K7" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="L7" s="25" t="s">
+      <c r="L7" s="24" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="C8" s="25" t="s">
+      <c r="C8" s="24" t="s">
         <v>140</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="8" t="s">
         <v>141</v>
       </c>
       <c r="J8" s="1" t="n">
@@ -2309,21 +2299,21 @@
       <c r="K8" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="L8" s="25" t="s">
+      <c r="L8" s="24" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="C9" s="25" t="s">
+      <c r="C9" s="24" t="s">
         <v>143</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="8" t="s">
         <v>144</v>
       </c>
       <c r="J9" s="1" t="n">
@@ -2332,24 +2322,24 @@
       <c r="K9" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="L9" s="25" t="s">
+      <c r="L9" s="24" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="C10" s="25" t="s">
+      <c r="C10" s="24" t="s">
         <v>146</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="I10" s="9" t="s">
+      <c r="I10" s="8" t="s">
         <v>23</v>
       </c>
       <c r="J10" s="1" t="n">
@@ -2358,24 +2348,24 @@
       <c r="K10" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="L10" s="25" t="s">
+      <c r="L10" s="24" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="C11" s="25" t="s">
+      <c r="C11" s="24" t="s">
         <v>149</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="H11" s="9" t="s">
+      <c r="H11" s="8" t="s">
         <v>23</v>
       </c>
       <c r="J11" s="1" t="n">
@@ -2384,7 +2374,7 @@
       <c r="K11" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="L11" s="25" t="s">
+      <c r="L11" s="24" t="s">
         <v>151</v>
       </c>
     </row>
@@ -2431,7 +2421,7 @@
   <dimension ref="A1:W12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A12" activeCellId="1" sqref="B7 A12"/>
+      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2442,10 +2432,10 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="6.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="4.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="9" width="7.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="9" width="3.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="9" width="3.64"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="9" width="3.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="8" width="7.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="8" width="3.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="8" width="3.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="8" width="3.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="4.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="2.84"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="13" style="0" width="6.5"/>
@@ -2479,16 +2469,16 @@
       <c r="F1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="8" t="s">
         <v>28</v>
       </c>
       <c r="K1" s="0" t="s">
@@ -2550,16 +2540,16 @@
       <c r="F2" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="G2" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" s="9" t="n">
+      <c r="G2" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" s="8" t="n">
         <v>0</v>
       </c>
       <c r="K2" s="0" t="n">
@@ -2621,16 +2611,16 @@
       <c r="F3" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="G3" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" s="9" t="n">
+      <c r="G3" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" s="8" t="n">
         <v>0</v>
       </c>
       <c r="K3" s="0" t="n">
@@ -2692,16 +2682,16 @@
       <c r="F4" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="G4" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" s="9" t="n">
+      <c r="G4" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" s="8" t="n">
         <v>0</v>
       </c>
       <c r="K4" s="0" t="n">
@@ -2763,16 +2753,16 @@
       <c r="F5" s="2" t="n">
         <v>-1</v>
       </c>
-      <c r="G5" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="H5" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" s="9" t="n">
+      <c r="G5" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" s="8" t="n">
         <v>0</v>
       </c>
       <c r="K5" s="0" t="n">
@@ -2834,16 +2824,16 @@
       <c r="F6" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="G6" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" s="9" t="n">
+      <c r="G6" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" s="8" t="n">
         <v>-1</v>
       </c>
-      <c r="J6" s="9" t="n">
+      <c r="J6" s="8" t="n">
         <v>0</v>
       </c>
       <c r="K6" s="0" t="n">
@@ -2905,16 +2895,16 @@
       <c r="F7" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="G7" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" s="9" t="n">
+      <c r="G7" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" s="8" t="n">
         <v>1</v>
       </c>
       <c r="K7" s="0" t="n">
@@ -2976,16 +2966,16 @@
       <c r="F8" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="G8" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" s="9" t="n">
+      <c r="G8" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" s="8" t="n">
         <v>-1</v>
       </c>
       <c r="K8" s="0" t="n">
@@ -3047,16 +3037,16 @@
       <c r="F9" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="G9" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" s="9" t="n">
+      <c r="G9" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" s="8" t="n">
         <v>-1</v>
       </c>
       <c r="K9" s="0" t="n">
@@ -3118,16 +3108,16 @@
       <c r="F10" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="G10" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" s="9" t="n">
+      <c r="G10" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" s="8" t="n">
         <v>-1</v>
       </c>
       <c r="K10" s="0" t="n">
@@ -3189,16 +3179,16 @@
       <c r="F11" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="G11" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" s="9" t="n">
+      <c r="G11" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" s="8" t="n">
         <v>0</v>
       </c>
       <c r="K11" s="0" t="n">
@@ -3260,16 +3250,16 @@
       <c r="F12" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="G12" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" s="9" t="n">
+      <c r="G12" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" s="8" t="n">
         <v>0</v>
       </c>
       <c r="K12" s="0" t="n">
@@ -3331,35 +3321,35 @@
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="1" sqref="B7 D1"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="9" width="11.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="9" width="30.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="9" width="8.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="9" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="8" width="11.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="8" width="30.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="8" width="8.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="8" width="8.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1018" min="5" style="0" width="8.67"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1019" style="0" width="11.5"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="9" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
         <v>20</v>
       </c>
       <c r="C2" s="2" t="n">
@@ -3367,10 +3357,10 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="8" t="s">
         <v>56</v>
       </c>
       <c r="C3" s="2" t="n">
@@ -3378,10 +3368,10 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="8" t="s">
         <v>57</v>
       </c>
       <c r="C4" s="2" t="n">
@@ -3389,10 +3379,10 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="8" t="s">
         <v>58</v>
       </c>
       <c r="C5" s="2" t="n">
@@ -3400,10 +3390,10 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="8" t="s">
         <v>59</v>
       </c>
       <c r="C6" s="2" t="n">
@@ -3411,70 +3401,70 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="8" t="s">
         <v>60</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="D7" s="11"/>
+      <c r="D7" s="10"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="8" t="s">
         <v>61</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="D8" s="11"/>
+      <c r="D8" s="10"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="8" t="s">
         <v>62</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="D9" s="11"/>
+      <c r="D9" s="10"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="8" t="s">
         <v>63</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="D10" s="11"/>
+      <c r="D10" s="10"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="8" t="s">
         <v>64</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="D11" s="11"/>
+      <c r="D11" s="10"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="8" t="s">
         <v>65</v>
       </c>
       <c r="C12" s="2" t="n">
@@ -3482,10 +3472,10 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="8" t="s">
         <v>31</v>
       </c>
       <c r="C13" s="2" t="n">
@@ -3493,10 +3483,10 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="8" t="s">
         <v>66</v>
       </c>
       <c r="C14" s="2" t="n">
@@ -3504,10 +3494,10 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="8" t="s">
         <v>67</v>
       </c>
       <c r="C15" s="2" t="n">
@@ -3515,10 +3505,10 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="8" t="s">
         <v>68</v>
       </c>
       <c r="C16" s="2" t="n">
@@ -3526,10 +3516,10 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="8" t="s">
         <v>69</v>
       </c>
       <c r="C17" s="2" t="n">
@@ -3537,10 +3527,10 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="9" t="s">
+      <c r="A18" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="8" t="s">
         <v>70</v>
       </c>
       <c r="C18" s="2" t="n">
@@ -3548,10 +3538,10 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="9" t="s">
+      <c r="A19" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="8" t="s">
         <v>71</v>
       </c>
       <c r="C19" s="2" t="n">
@@ -3559,10 +3549,10 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="9" t="s">
+      <c r="A20" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="8" t="s">
         <v>38</v>
       </c>
       <c r="C20" s="2" t="n">
@@ -3570,10 +3560,10 @@
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="9" t="s">
+      <c r="A21" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="8" t="s">
         <v>39</v>
       </c>
       <c r="C21" s="2" t="n">
@@ -3581,10 +3571,10 @@
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="9" t="s">
+      <c r="A22" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="8" t="s">
         <v>72</v>
       </c>
       <c r="C22" s="2" t="n">
@@ -3592,10 +3582,10 @@
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="9" t="s">
+      <c r="A23" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="8" t="s">
         <v>73</v>
       </c>
       <c r="C23" s="2" t="n">
@@ -3621,151 +3611,151 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="1" sqref="B7 D1"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="9" width="9.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="9" width="43.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="9" width="16.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="9" width="10.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1023" min="5" style="9" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="8" width="9.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="8" width="43.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="8" width="16.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="8" width="10.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1023" min="5" style="8" width="8.67"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1024" style="0" width="11.5"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="11" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="C2" s="9" t="n">
+      <c r="C2" s="8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="C3" s="9" t="n">
+      <c r="C3" s="8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="C4" s="9" t="n">
+      <c r="C4" s="8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="C5" s="9" t="n">
+      <c r="C5" s="8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="C6" s="9" t="n">
+      <c r="C6" s="8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="C7" s="9" t="n">
+      <c r="C7" s="8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="C8" s="9" t="n">
+      <c r="C8" s="8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="C9" s="9" t="n">
+      <c r="C9" s="8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="C10" s="9" t="n">
+      <c r="C10" s="8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="C11" s="9" t="n">
+      <c r="C11" s="8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="C12" s="9" t="n">
+      <c r="C12" s="8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3788,7 +3778,7 @@
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="B7 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3799,21 +3789,21 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="11" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="8" t="s">
         <v>20</v>
       </c>
       <c r="B2" s="2"/>
@@ -3821,7 +3811,7 @@
       <c r="D2" s="2"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="8" t="s">
         <v>21</v>
       </c>
       <c r="B3" s="2"/>
@@ -3829,7 +3819,7 @@
       <c r="D3" s="2"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="8" t="s">
         <v>22</v>
       </c>
       <c r="B4" s="2"/>
@@ -3837,7 +3827,7 @@
       <c r="D4" s="2"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="8" t="s">
         <v>23</v>
       </c>
       <c r="B5" s="2"/>
@@ -3845,7 +3835,7 @@
       <c r="D5" s="2"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="8" t="s">
         <v>92</v>
       </c>
       <c r="B6" s="2"/>
@@ -3853,7 +3843,7 @@
       <c r="D6" s="2"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="8" t="s">
         <v>93</v>
       </c>
       <c r="B7" s="2"/>
@@ -3861,85 +3851,85 @@
       <c r="D7" s="2"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="8" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="8" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="8" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="8" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="8" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="8" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="8" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="8" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="8" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="9" t="s">
+      <c r="A18" s="8" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="9" t="s">
+      <c r="A19" s="8" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="9" t="s">
+      <c r="A20" s="8" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="9" t="s">
+      <c r="A21" s="8" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="9" t="s">
+      <c r="A22" s="8" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="9" t="s">
+      <c r="A23" s="8" t="s">
         <v>41</v>
       </c>
     </row>
@@ -3962,7 +3952,7 @@
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A17" activeCellId="1" sqref="B7 A17"/>
+      <selection pane="topLeft" activeCell="A17" activeCellId="0" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3973,126 +3963,126 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="11" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="8" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="8" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="8" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="8" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="8" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="8" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="8" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="8" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="8" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="8" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="8" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="8" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="8" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="8" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="8" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="8" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="9" t="s">
+      <c r="A18" s="8" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="9" t="s">
+      <c r="A19" s="8" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="9" t="s">
+      <c r="A20" s="8" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="9" t="s">
+      <c r="A21" s="8" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="9" t="s">
+      <c r="A22" s="8" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="9" t="s">
+      <c r="A23" s="8" t="s">
         <v>41</v>
       </c>
     </row>
@@ -4114,8 +4104,8 @@
   </sheetPr>
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C11" activeCellId="1" sqref="B7 C11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4141,21 +4131,21 @@
       <c r="A2" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" s="14" t="n">
+      <c r="B2" s="13" t="n">
         <v>-50</v>
+      </c>
+      <c r="C2" s="13" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="14" t="n">
+      <c r="B3" s="13" t="n">
         <v>-133.737743483803</v>
       </c>
-      <c r="C3" s="14" t="n">
+      <c r="C3" s="13" t="n">
         <v>-115.839227967117</v>
       </c>
     </row>
@@ -4163,10 +4153,10 @@
       <c r="A4" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="15" t="n">
+      <c r="B4" s="14" t="n">
         <v>-133.737743483803</v>
       </c>
-      <c r="C4" s="15" t="n">
+      <c r="C4" s="14" t="n">
         <v>-115.839227967117</v>
       </c>
     </row>
@@ -4174,10 +4164,10 @@
       <c r="A5" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B5" s="15" t="n">
+      <c r="B5" s="14" t="n">
         <v>-13.9969595717307</v>
       </c>
-      <c r="C5" s="15" t="n">
+      <c r="C5" s="14" t="n">
         <v>-3.36434311506105</v>
       </c>
     </row>
@@ -4185,10 +4175,10 @@
       <c r="A6" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B6" s="15" t="n">
+      <c r="B6" s="14" t="n">
         <v>-2.65360557420809</v>
       </c>
-      <c r="C6" s="15" t="n">
+      <c r="C6" s="14" t="n">
         <v>-9.16597855393775E-007</v>
       </c>
     </row>
@@ -4196,10 +4186,10 @@
       <c r="A7" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B7" s="15" t="n">
+      <c r="B7" s="14" t="n">
         <v>-4.47107599685342</v>
       </c>
-      <c r="C7" s="15" t="n">
+      <c r="C7" s="14" t="n">
         <v>-2.27373675443232E-013</v>
       </c>
     </row>
@@ -4207,10 +4197,10 @@
       <c r="A8" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B8" s="15" t="n">
+      <c r="B8" s="14" t="n">
         <v>-57.7519418492923</v>
       </c>
-      <c r="C8" s="15" t="n">
+      <c r="C8" s="14" t="n">
         <v>-44.1664298922258</v>
       </c>
     </row>
@@ -4218,10 +4208,10 @@
       <c r="A9" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B9" s="15" t="n">
+      <c r="B9" s="14" t="n">
         <v>-18.758533835442</v>
       </c>
-      <c r="C9" s="15" t="n">
+      <c r="C9" s="14" t="n">
         <v>-1.90457512871944E-007</v>
       </c>
     </row>
@@ -4229,10 +4219,10 @@
       <c r="A10" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B10" s="15" t="n">
+      <c r="B10" s="14" t="n">
         <v>-23.4753886782314</v>
       </c>
-      <c r="C10" s="15" t="n">
+      <c r="C10" s="14" t="n">
         <v>-4.01116348408095</v>
       </c>
     </row>
@@ -4240,10 +4230,10 @@
       <c r="A11" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B11" s="15" t="n">
+      <c r="B11" s="14" t="n">
         <v>-17.5085881670439</v>
       </c>
-      <c r="C11" s="15" t="n">
+      <c r="C11" s="14" t="n">
         <v>-1.13686837721616E-012</v>
       </c>
     </row>
@@ -4251,10 +4241,10 @@
       <c r="A12" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B12" s="14" t="n">
+      <c r="B12" s="13" t="n">
         <v>-1000</v>
       </c>
-      <c r="C12" s="14" t="n">
+      <c r="C12" s="13" t="n">
         <v>-1000</v>
       </c>
     </row>
@@ -4277,7 +4267,7 @@
   <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A23" activeCellId="1" sqref="B7 A23"/>
+      <selection pane="topLeft" activeCell="A23" activeCellId="0" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4289,13 +4279,13 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="15" t="s">
         <v>97</v>
       </c>
     </row>
@@ -4303,10 +4293,10 @@
       <c r="A2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="17" t="n">
+      <c r="B2" s="16" t="n">
         <v>2E-005</v>
       </c>
-      <c r="C2" s="17" t="n">
+      <c r="C2" s="16" t="n">
         <v>7.5E-005</v>
       </c>
     </row>
@@ -4314,10 +4304,10 @@
       <c r="A3" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="17" t="n">
+      <c r="B3" s="16" t="n">
         <v>0.001</v>
       </c>
-      <c r="C3" s="17" t="n">
+      <c r="C3" s="16" t="n">
         <v>0.001</v>
       </c>
     </row>
@@ -4325,10 +4315,10 @@
       <c r="A4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="17" t="n">
+      <c r="B4" s="16" t="n">
         <v>0.001</v>
       </c>
-      <c r="C4" s="17" t="n">
+      <c r="C4" s="16" t="n">
         <v>0.005</v>
       </c>
     </row>
@@ -4336,10 +4326,10 @@
       <c r="A5" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="C5" s="17" t="n">
+      <c r="B5" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" s="16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4347,10 +4337,10 @@
       <c r="A6" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="17" t="n">
+      <c r="B6" s="16" t="n">
         <v>5E-005</v>
       </c>
-      <c r="C6" s="17" t="n">
+      <c r="C6" s="16" t="n">
         <v>0.00017</v>
       </c>
     </row>
@@ -4358,10 +4348,10 @@
       <c r="A7" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B7" s="17" t="n">
+      <c r="B7" s="16" t="n">
         <v>0.001</v>
       </c>
-      <c r="C7" s="17" t="n">
+      <c r="C7" s="16" t="n">
         <v>0.005</v>
       </c>
     </row>
@@ -4369,10 +4359,10 @@
       <c r="A8" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B8" s="17" t="n">
+      <c r="B8" s="16" t="n">
         <v>0.001</v>
       </c>
-      <c r="C8" s="17" t="n">
+      <c r="C8" s="16" t="n">
         <v>0.005</v>
       </c>
     </row>
@@ -4380,10 +4370,10 @@
       <c r="A9" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B9" s="17" t="n">
+      <c r="B9" s="16" t="n">
         <v>0.001</v>
       </c>
-      <c r="C9" s="17" t="n">
+      <c r="C9" s="16" t="n">
         <v>0.005</v>
       </c>
     </row>
@@ -4391,10 +4381,10 @@
       <c r="A10" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="17" t="n">
+      <c r="B10" s="16" t="n">
         <v>3E-006</v>
       </c>
-      <c r="C10" s="17" t="n">
+      <c r="C10" s="16" t="n">
         <v>4E-005</v>
       </c>
     </row>
@@ -4402,10 +4392,10 @@
       <c r="A11" s="0" t="s">
         <v>93</v>
       </c>
-      <c r="B11" s="18" t="n">
+      <c r="B11" s="17" t="n">
         <v>0.001</v>
       </c>
-      <c r="C11" s="18" t="n">
+      <c r="C11" s="17" t="n">
         <v>0.005</v>
       </c>
     </row>
@@ -4413,10 +4403,10 @@
       <c r="A12" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="18" t="n">
+      <c r="B12" s="17" t="n">
         <v>1E-006</v>
       </c>
-      <c r="C12" s="18" t="n">
+      <c r="C12" s="17" t="n">
         <v>0.0001</v>
       </c>
     </row>
@@ -4424,10 +4414,10 @@
       <c r="A13" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="18" t="n">
+      <c r="B13" s="17" t="n">
         <v>0.0012</v>
       </c>
-      <c r="C13" s="18" t="n">
+      <c r="C13" s="17" t="n">
         <v>0.0018</v>
       </c>
     </row>
@@ -4435,10 +4425,10 @@
       <c r="A14" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="18" t="n">
+      <c r="B14" s="17" t="n">
         <v>3E-006</v>
       </c>
-      <c r="C14" s="18" t="n">
+      <c r="C14" s="17" t="n">
         <v>6E-006</v>
       </c>
     </row>
@@ -4446,10 +4436,10 @@
       <c r="A15" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="B15" s="18" t="n">
+      <c r="B15" s="17" t="n">
         <v>4E-007</v>
       </c>
-      <c r="C15" s="18" t="n">
+      <c r="C15" s="17" t="n">
         <v>5E-005</v>
       </c>
     </row>
@@ -4457,10 +4447,10 @@
       <c r="A16" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="B16" s="18" t="n">
+      <c r="B16" s="17" t="n">
         <v>1E-006</v>
       </c>
-      <c r="C16" s="18" t="n">
+      <c r="C16" s="17" t="n">
         <v>1.6E-005</v>
       </c>
     </row>
@@ -4468,10 +4458,10 @@
       <c r="A17" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="18" t="n">
+      <c r="B17" s="17" t="n">
         <v>4E-006</v>
       </c>
-      <c r="C17" s="18" t="n">
+      <c r="C17" s="17" t="n">
         <v>8E-006</v>
       </c>
     </row>
@@ -4479,10 +4469,10 @@
       <c r="A18" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="B18" s="18" t="n">
+      <c r="B18" s="17" t="n">
         <v>0.00022</v>
       </c>
-      <c r="C18" s="18" t="n">
+      <c r="C18" s="17" t="n">
         <v>0.0073</v>
       </c>
     </row>
@@ -4490,10 +4480,10 @@
       <c r="A19" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="B19" s="18" t="n">
+      <c r="B19" s="17" t="n">
         <v>1E-005</v>
       </c>
-      <c r="C19" s="18" t="n">
+      <c r="C19" s="17" t="n">
         <v>0.00025</v>
       </c>
     </row>
@@ -4501,10 +4491,10 @@
       <c r="A20" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="B20" s="18" t="n">
+      <c r="B20" s="17" t="n">
         <v>0.00014</v>
       </c>
-      <c r="C20" s="18" t="n">
+      <c r="C20" s="17" t="n">
         <v>0.0018</v>
       </c>
     </row>
@@ -4512,10 +4502,10 @@
       <c r="A21" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="B21" s="18" t="n">
+      <c r="B21" s="17" t="n">
         <v>1E-006</v>
       </c>
-      <c r="C21" s="18" t="n">
+      <c r="C21" s="17" t="n">
         <v>0.0001</v>
       </c>
     </row>
@@ -4523,10 +4513,10 @@
       <c r="A22" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="B22" s="18" t="n">
+      <c r="B22" s="17" t="n">
         <v>0.0002</v>
       </c>
-      <c r="C22" s="18" t="n">
+      <c r="C22" s="17" t="n">
         <v>0.0003</v>
       </c>
     </row>
@@ -4534,10 +4524,10 @@
       <c r="A23" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="B23" s="18" t="n">
+      <c r="B23" s="17" t="n">
         <v>0.0002</v>
       </c>
-      <c r="C23" s="18" t="n">
+      <c r="C23" s="17" t="n">
         <v>0.0003</v>
       </c>
     </row>
@@ -4560,7 +4550,7 @@
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B12" activeCellId="1" sqref="B7 B12"/>
+      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4577,130 +4567,130 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="10" style="0" width="8.67"/>
   </cols>
   <sheetData>
-    <row r="1" s="20" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="12" t="s">
+    <row r="1" s="19" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="H1" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="I1" s="18" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="2" s="20" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" s="19" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="21" t="n">
+      <c r="B2" s="20" t="n">
         <v>0.1382</v>
       </c>
-      <c r="C2" s="22" t="n">
+      <c r="C2" s="21" t="n">
         <f aca="false">0.15*B2</f>
         <v>0.02073</v>
       </c>
-      <c r="D2" s="21" t="n">
+      <c r="D2" s="20" t="n">
         <v>0.1325</v>
       </c>
-      <c r="E2" s="22" t="n">
+      <c r="E2" s="21" t="n">
         <f aca="false">0.15*D2</f>
         <v>0.019875</v>
       </c>
-      <c r="F2" s="21" t="n">
+      <c r="F2" s="20" t="n">
         <v>0.1347</v>
       </c>
-      <c r="G2" s="22" t="n">
+      <c r="G2" s="21" t="n">
         <f aca="false">0.15*F2</f>
         <v>0.020205</v>
       </c>
-      <c r="H2" s="21" t="n">
+      <c r="H2" s="20" t="n">
         <v>0.1075</v>
       </c>
-      <c r="I2" s="22" t="n">
+      <c r="I2" s="21" t="n">
         <f aca="false">0.15*H2</f>
         <v>0.016125</v>
       </c>
     </row>
-    <row r="3" s="20" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" s="19" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="21" t="n">
+      <c r="B3" s="20" t="n">
         <v>0.8148</v>
       </c>
-      <c r="C3" s="22" t="n">
+      <c r="C3" s="21" t="n">
         <f aca="false">0.15*B3</f>
         <v>0.12222</v>
       </c>
-      <c r="D3" s="21" t="n">
+      <c r="D3" s="20" t="n">
         <v>0.8687</v>
       </c>
-      <c r="E3" s="22" t="n">
+      <c r="E3" s="21" t="n">
         <f aca="false">0.15*D3</f>
         <v>0.130305</v>
       </c>
-      <c r="F3" s="21" t="n">
+      <c r="F3" s="20" t="n">
         <v>0.856</v>
       </c>
-      <c r="G3" s="22" t="n">
+      <c r="G3" s="21" t="n">
         <f aca="false">0.15*F3</f>
         <v>0.1284</v>
       </c>
-      <c r="H3" s="21" t="n">
+      <c r="H3" s="20" t="n">
         <v>0.7304</v>
       </c>
-      <c r="I3" s="22" t="n">
+      <c r="I3" s="21" t="n">
         <f aca="false">0.15*H3</f>
         <v>0.10956</v>
       </c>
     </row>
-    <row r="4" s="20" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" s="19" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="21" t="n">
+      <c r="B4" s="20" t="n">
         <v>0.2491</v>
       </c>
-      <c r="C4" s="22" t="n">
+      <c r="C4" s="21" t="n">
         <f aca="false">0.15*B4</f>
         <v>0.037365</v>
       </c>
-      <c r="D4" s="21" t="n">
+      <c r="D4" s="20" t="n">
         <v>0.158</v>
       </c>
-      <c r="E4" s="22" t="n">
+      <c r="E4" s="21" t="n">
         <f aca="false">0.15*D4</f>
         <v>0.0237</v>
       </c>
-      <c r="F4" s="21" t="n">
+      <c r="F4" s="20" t="n">
         <v>0.1836</v>
       </c>
-      <c r="G4" s="22" t="n">
+      <c r="G4" s="21" t="n">
         <f aca="false">0.15*F4</f>
         <v>0.02754</v>
       </c>
-      <c r="H4" s="21" t="n">
+      <c r="H4" s="20" t="n">
         <v>0.0578</v>
       </c>
-      <c r="I4" s="22" t="n">
+      <c r="I4" s="21" t="n">
         <f aca="false">0.15*H4</f>
         <v>0.00867</v>
       </c>
@@ -4709,31 +4699,31 @@
       <c r="A5" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B5" s="21" t="n">
+      <c r="B5" s="20" t="n">
         <v>1.0164</v>
       </c>
-      <c r="C5" s="22" t="n">
+      <c r="C5" s="21" t="n">
         <f aca="false">0.15*B5</f>
         <v>0.15246</v>
       </c>
-      <c r="D5" s="21" t="n">
+      <c r="D5" s="20" t="n">
         <v>1.0037</v>
       </c>
-      <c r="E5" s="22" t="n">
+      <c r="E5" s="21" t="n">
         <f aca="false">0.15*D5</f>
         <v>0.150555</v>
       </c>
-      <c r="F5" s="21" t="n">
+      <c r="F5" s="20" t="n">
         <v>0.9685</v>
       </c>
-      <c r="G5" s="22" t="n">
+      <c r="G5" s="21" t="n">
         <f aca="false">0.15*F5</f>
         <v>0.145275</v>
       </c>
-      <c r="H5" s="21" t="n">
+      <c r="H5" s="20" t="n">
         <v>0.785</v>
       </c>
-      <c r="I5" s="22" t="n">
+      <c r="I5" s="21" t="n">
         <f aca="false">0.15*H5</f>
         <v>0.11775</v>
       </c>
@@ -4742,31 +4732,31 @@
       <c r="A6" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B6" s="21" t="n">
+      <c r="B6" s="20" t="n">
         <v>0.0475</v>
       </c>
-      <c r="C6" s="22" t="n">
+      <c r="C6" s="21" t="n">
         <f aca="false">0.15*B6</f>
         <v>0.007125</v>
       </c>
-      <c r="D6" s="21" t="n">
+      <c r="D6" s="20" t="n">
         <v>0.023</v>
       </c>
-      <c r="E6" s="22" t="n">
+      <c r="E6" s="21" t="n">
         <f aca="false">0.15*D6</f>
         <v>0.00345</v>
       </c>
-      <c r="F6" s="21" t="n">
+      <c r="F6" s="20" t="n">
         <v>0.071</v>
       </c>
-      <c r="G6" s="22" t="n">
+      <c r="G6" s="21" t="n">
         <f aca="false">0.15*F6</f>
         <v>0.01065</v>
       </c>
-      <c r="H6" s="21" t="n">
+      <c r="H6" s="20" t="n">
         <v>0.0031</v>
       </c>
-      <c r="I6" s="22" t="n">
+      <c r="I6" s="21" t="n">
         <f aca="false">0.15*H6</f>
         <v>0.000465</v>
       </c>
@@ -4775,31 +4765,31 @@
       <c r="A7" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B7" s="21" t="n">
+      <c r="B7" s="20" t="n">
         <v>1.0639</v>
       </c>
-      <c r="C7" s="22" t="n">
+      <c r="C7" s="21" t="n">
         <f aca="false">0.15*B7</f>
         <v>0.159585</v>
       </c>
-      <c r="D7" s="21" t="n">
+      <c r="D7" s="20" t="n">
         <v>1.0267</v>
       </c>
-      <c r="E7" s="22" t="n">
+      <c r="E7" s="21" t="n">
         <f aca="false">0.15*D7</f>
         <v>0.154005</v>
       </c>
-      <c r="F7" s="21" t="n">
+      <c r="F7" s="20" t="n">
         <v>1.0396</v>
       </c>
-      <c r="G7" s="22" t="n">
+      <c r="G7" s="21" t="n">
         <f aca="false">0.15*F7</f>
         <v>0.15594</v>
       </c>
-      <c r="H7" s="21" t="n">
+      <c r="H7" s="20" t="n">
         <v>0.7881</v>
       </c>
-      <c r="I7" s="22" t="n">
+      <c r="I7" s="21" t="n">
         <f aca="false">0.15*H7</f>
         <v>0.118215</v>
       </c>
@@ -4808,31 +4798,31 @@
       <c r="A8" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B8" s="21" t="n">
+      <c r="B8" s="20" t="n">
         <v>0.0852</v>
       </c>
-      <c r="C8" s="22" t="n">
+      <c r="C8" s="21" t="n">
         <f aca="false">0.15*B8</f>
         <v>0.01278</v>
       </c>
-      <c r="D8" s="21" t="n">
+      <c r="D8" s="20" t="n">
         <v>0.0878</v>
       </c>
-      <c r="E8" s="22" t="n">
+      <c r="E8" s="21" t="n">
         <f aca="false">0.15*D8</f>
         <v>0.01317</v>
       </c>
-      <c r="F8" s="21" t="n">
+      <c r="F8" s="20" t="n">
         <v>0.021</v>
       </c>
-      <c r="G8" s="22" t="n">
+      <c r="G8" s="21" t="n">
         <f aca="false">0.15*F8</f>
         <v>0.00315</v>
       </c>
-      <c r="H8" s="21" t="n">
+      <c r="H8" s="20" t="n">
         <v>0.1343</v>
       </c>
-      <c r="I8" s="22" t="n">
+      <c r="I8" s="21" t="n">
         <f aca="false">0.15*H8</f>
         <v>0.020145</v>
       </c>
@@ -4841,31 +4831,31 @@
       <c r="A9" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B9" s="21" t="n">
+      <c r="B9" s="20" t="n">
         <v>0.3556</v>
       </c>
-      <c r="C9" s="22" t="n">
+      <c r="C9" s="21" t="n">
         <f aca="false">0.15*B9</f>
         <v>0.05334</v>
       </c>
-      <c r="D9" s="21" t="n">
+      <c r="D9" s="20" t="n">
         <v>0.3102</v>
       </c>
-      <c r="E9" s="22" t="n">
+      <c r="E9" s="21" t="n">
         <f aca="false">0.15*D9</f>
         <v>0.04653</v>
       </c>
-      <c r="F9" s="21" t="n">
+      <c r="F9" s="20" t="n">
         <v>0.392</v>
       </c>
-      <c r="G9" s="22" t="n">
+      <c r="G9" s="21" t="n">
         <f aca="false">0.15*F9</f>
         <v>0.0588</v>
       </c>
-      <c r="H9" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" s="22" t="n">
+      <c r="H9" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" s="21" t="n">
         <f aca="false">0.15*H9</f>
         <v>0</v>
       </c>
@@ -4874,31 +4864,31 @@
       <c r="A10" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B10" s="21" t="n">
+      <c r="B10" s="20" t="n">
         <v>0.6231</v>
       </c>
-      <c r="C10" s="22" t="n">
+      <c r="C10" s="21" t="n">
         <f aca="false">0.15*B10</f>
         <v>0.093465</v>
       </c>
-      <c r="D10" s="21" t="n">
+      <c r="D10" s="20" t="n">
         <v>0.6288</v>
       </c>
-      <c r="E10" s="22" t="n">
+      <c r="E10" s="21" t="n">
         <f aca="false">0.15*D10</f>
         <v>0.09432</v>
       </c>
-      <c r="F10" s="21" t="n">
+      <c r="F10" s="20" t="n">
         <v>0.6266</v>
       </c>
-      <c r="G10" s="22" t="n">
+      <c r="G10" s="21" t="n">
         <f aca="false">0.15*F10</f>
         <v>0.09399</v>
       </c>
-      <c r="H10" s="21" t="n">
+      <c r="H10" s="20" t="n">
         <v>0.6538</v>
       </c>
-      <c r="I10" s="22" t="n">
+      <c r="I10" s="21" t="n">
         <f aca="false">0.15*H10</f>
         <v>0.09807</v>
       </c>
@@ -4907,64 +4897,64 @@
       <c r="A11" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B11" s="21" t="n">
+      <c r="B11" s="20" t="n">
         <v>0.0852</v>
       </c>
-      <c r="C11" s="22" t="n">
+      <c r="C11" s="21" t="n">
         <f aca="false">0.15*B11</f>
         <v>0.01278</v>
       </c>
-      <c r="D11" s="21" t="n">
+      <c r="D11" s="20" t="n">
         <v>0.0878</v>
       </c>
-      <c r="E11" s="22" t="n">
+      <c r="E11" s="21" t="n">
         <f aca="false">0.15*D11</f>
         <v>0.01317</v>
       </c>
-      <c r="F11" s="21" t="n">
+      <c r="F11" s="20" t="n">
         <v>0.021</v>
       </c>
-      <c r="G11" s="22" t="n">
+      <c r="G11" s="21" t="n">
         <f aca="false">0.15*F11</f>
         <v>0.00315</v>
       </c>
-      <c r="H11" s="21" t="n">
+      <c r="H11" s="20" t="n">
         <v>0.1343</v>
       </c>
-      <c r="I11" s="22" t="n">
+      <c r="I11" s="21" t="n">
         <f aca="false">0.15*H11</f>
         <v>0.020145</v>
       </c>
     </row>
-    <row r="12" s="20" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" s="19" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B12" s="21" t="n">
+      <c r="B12" s="20" t="n">
         <v>0.7613</v>
       </c>
-      <c r="C12" s="22" t="n">
+      <c r="C12" s="21" t="n">
         <f aca="false">0.15*B12</f>
         <v>0.114195</v>
       </c>
-      <c r="D12" s="21" t="n">
+      <c r="D12" s="20" t="n">
         <v>0.7613</v>
       </c>
-      <c r="E12" s="22" t="n">
+      <c r="E12" s="21" t="n">
         <f aca="false">0.15*D12</f>
         <v>0.114195</v>
       </c>
-      <c r="F12" s="21" t="n">
+      <c r="F12" s="20" t="n">
         <v>0.7613</v>
       </c>
-      <c r="G12" s="22" t="n">
+      <c r="G12" s="21" t="n">
         <f aca="false">0.15*F12</f>
         <v>0.114195</v>
       </c>
-      <c r="H12" s="21" t="n">
+      <c r="H12" s="20" t="n">
         <v>0.7613</v>
       </c>
-      <c r="I12" s="22" t="n">
+      <c r="I12" s="21" t="n">
         <f aca="false">0.15*H12</f>
         <v>0.114195</v>
       </c>
